--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid022vHHiEMvt96YcqKzbfNFSB5AB7W1qtSbadtNVMbsoVGXoADGAHJ293y3wbvuv6E9l?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fIc6DChtOZAQ7kNvwHSm1dL&amp;_nc_oc=Adn6iaSrAyOWbJoi7Aj2df85dyQc0OlXRO8s6bWLqwzzONWsFmtWqbihNcI-VT4VxWA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=tv2sOvS54JvO2YFu4a9psg&amp;oh=00_AffMwSvZMrN75R24S_5pSvtFrLs1QNk9MbOR2V0Pizl6ew&amp;oe=68FECD1A', 'profileId': 'pfbid0W6czam74Q3Bx6e67sbkwcEbwP3TAJnFvBUyfyxeo6mA7z3vA7h7REoxJbZ3DxSaql', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036miztuHkjWcwUEPgh4SxXjfR6WiBmd48HfHVGSp3Nfzrnjct8iECWXQ5xrdyHeHDl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwHV76Vv&amp;_nc_oc=AdmuOKAKc6bv55csteOPoh7O7f0m6MDfXK6xkWrDhrGcbOvkeDSpYHKZRsw5cqpoMcI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=tw8XK1x4AzSHzcdYOesNpQ&amp;oh=00_AfeP3aRmmcGw-86MeirYXKFWL29C0wsQTS04H1qKYC-gNw&amp;oe=68FFE65A', 'profileId': 'pfbid02Zx4hmS2tFZQriXe39sbkWM4SJWEBFpm3tcX7xpze4KBgzJqFZYfU6MF1cQoVCGUil', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1808,11 +1808,21 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0</v>
+      <c r="G32" s="2" t="n">
+        <v>45953.00730324074</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>00:10:31</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1823,7 +1833,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02L6iQRNZdKubyp1DUMKkewU76w5GTqwbbf3NBW1webbaUWZHDQfpekvrkyK1bfPf6l?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pDRsOMfgot0Q7kNvwGumzdr&amp;_nc_oc=Adne1BGKpfbc8CjD-EU1LE8Ul4KBOszxjGDvZknyYtEbBBGCPMhuTH2Tqk0O2P3I7HU&amp;_nc_zt=26&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=1NJneeYfxup4LeUvqgk5MA&amp;oh=00_Affr33W8EgbGdNwRoTebL6w9itKtjD9ddKItEw4-kgM0FQ&amp;oe=68FFF030', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=nZcKe_HphWYQ7kNvwFcHESG&amp;_nc_oc=Adk29furWWyJ2c7zdK_FZpuI-_HgahUVurFnFU8ThfeqRHVoaj5_MSf-4CO6EYW2X-U&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=1NJneeYfxup4LeUvqgk5MA&amp;oh=00_AfdQ7VegUOOt-I6w-sSThsj8OkipECHVCWig1Kf5VKinFQ&amp;oe=68FFED6B', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1931,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=D3fOwr6x0ZcQ7kNvwGK7Sf7&amp;_nc_oc=AdmOolB2zjwir-e0zt5B1WNMZmddhtF3uBXlbIyDz7MNPro1cUGYbF1QvV9YZfz8AIf_6Jhe8rDW03NZN5jBT_DD&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;oh=00_AffWbROoqqCTrASfkLXNt2dIay1oKnjKqQaB563oj7TTlQ&amp;oe=692060FA', 'profileId': 'pfbid0MfoB9cuq221ybAZWEd8b835C8VwhTyzNpeZys1oAHbRdgmMwCjGxNmHDpfzE5jXrl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwG79CrP&amp;_nc_oc=AdkgEa_kotjUFQsiLUxlsB2aNDrDjgjo44Ffj0e6SrHvG_2PYHEcqt2pV_KznpZtH6s&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afe9XDpiFK9oXlMP6K33UoDbTYiaHS1avapjz4Hr668l5A&amp;oe=6921B27A', 'profileId': 'pfbid0MfoB9cuq221ybAZWEd8b835C8VwhTyzNpeZys1oAHbRdgmMwCjGxNmHDpfzE5jXrl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1981,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=L0GQksXS6uwQ7kNvwHFTud5&amp;_nc_oc=AdlUgF9TGbfUN0J2455aKu5Mcl_rAq_OOBGQV0w6G7DnM8xtQ0UV-EqrhZc1-vqtuNzKXIrOEf4K0RoiHZ_sIs66&amp;_nc_zt=26&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=AJDNP8YNOv9vsb6YrfW2mA&amp;oh=00_Aff1pCaBCi8ypPE4AV09OXL5Di55pIINvbq48ngPECSKWw&amp;oe=68FEE0FA', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Af5h4TsJq8MQ7kNvwHP1TBB&amp;_nc_oc=AdlEw16GQTNOgvbYZdlglc_kuF6Jnwuk4T3vwnKs0PVIaauIrevwPvOlrP8XewjYQnmjSn39coAE3-NEzGnS0FQO&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=AJDNP8YNOv9vsb6YrfW2mA&amp;oh=00_Afdh6IArLX7sHfVN-NTVotmHKjz8tipRBqoDrKNTTXo8wQ&amp;oe=68FEAD6A', 'profileId': 'pfbid022knByN4SGwWw7AfJk8vZQXWYKZLvLwVNvLBnQQmhJhH6DQBP4BMTL66gokxe3v2Rl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=L0GQksXS6uwQ7kNvwHL7LS9&amp;_nc_oc=Adlgw7ywl80IlRINipjLtlga8y4Wh6r33x1LyTiYwr5oHleX0rC-F_dw6IUbkdnkFVk&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Uzz-07OYMSUtrx6UFSJ0iw&amp;oh=00_Afe_xAHsD7mTmGhy90VA27XQl68TxAo0s-0v0ioOZlIgvg&amp;oe=68FFFA3A', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwExfYLE&amp;_nc_oc=AdkTe1AW6BEiP8DRkUxk1CIiPGqcgGpUfh9YCMivYWE5ZXqsD4fkCA2Oarscfue4Ufg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Uzz-07OYMSUtrx6UFSJ0iw&amp;oh=00_AffWGRq9f9HfBPT3yOyIF8gUg2EtTEUYOAT6ImBEq67gVg&amp;oe=68FFFEEA', 'profileId': 'pfbid0368GNbPR4JXjQ2RhfqN53eKTb7iTqWRnEAYgwRi6pz537JaKkfovXPZaSNqMFKYEJl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2163,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nrTGu5oKUakQ7kNvwGD5oNM&amp;_nc_oc=Admm5bYiKyUS4qHGsA-V79V0tD7LJc11DMXu-XGjfSdOoPEOTojbm1OmFPqh8PhsBP4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_Afe7dO6y8Gk6WCD0PKty1ZZtQ5ZgzLYoGiv1VbTuRonDQg&amp;oe=692059D0', 'profileId': 'pfbid02MjQ9K5vEDkjPsvLTB6KQpEtJdepFBGMQovaUTDdSqT3Pr3FT9rhEyKL2iHLJ9GSRl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nrTGu5oKUakQ7kNvwFqaECJ&amp;_nc_oc=AdmJoillgSncnWmgVOL-snCgtQQgHQJWDjSdCPGLYNtmCiSGlZzs55ltpv-fliAgtGo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afe4V4jOB9bBMX3pxivs9TxFZTnh3hcrIfZ4URAxz_zAeQ&amp;oe=6921AB50', 'profileId': 'pfbid0JBkxPvHsNhEmDqKDW39PcAvshRDtN6VNRNoHHDmwQxgj2krg6kZAj8J2LY1tMzqRl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2217,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lH7GQjkAzLoQ7kNvwHP0tXg&amp;_nc_oc=AdlsTxP_bXePVVqff9HiZH59LAVl2s5I-tzo52ccNbPYmKXXDwL3v_Q0dUGyVdBAklQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_Afe9rVce28J22bopk8TS1XO9UbsynCx7I2SNzQ7-ZVkgPw&amp;oe=68FECCA7', 'profileId': 'pfbid02V4moLUcQDkVpkt2Bz4MsNaMhirLKqPEAZUhnck5t2erWnxccgPczgc2mMKfpGguDl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lH7GQjkAzLoQ7kNvwGzXRiu&amp;_nc_oc=Adnv3SQW8VeZLO6v6OFdw2QL_nHIjJMRR2PKqgJDKB_jllBKot_sjT094S4bm6ltSP4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffdPtK_V0EzsKnSCF9SM0NQ6GHzPOUGWuqAMzXdQn4NKA&amp;oe=69001E27', 'profileId': 'pfbid0RX8cRJz3NebLVUiVbSR2jyEvhAL9BSXih3VQfacg51SxDuFvfU5J4rHNNEXUPjKHl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2271,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=maTz1WrAMRoQ7kNvwET4YoR&amp;_nc_oc=Adl1HX1R4GLZhqkX2KMrIX8uMzpUVbO5uhCSkY9JELKoIw-S-KIMcEQCfiVxnjBnESA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfcJ1L27kAwXxOL2dC2hQM_cUZHmPdVnd1bbF0DaV31DaA&amp;oe=68FEBEDC', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwEKrQGS&amp;_nc_oc=Adle2qbIGkuZUlxfok-wPtH0g9PPXnNWInLXU_2vjWWpjQN9BkL1pg8iZHjLYS_kiE8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afey829zWk1DukNtA8GFGKuxhOyDN-nRJUeKJjg5ETLJyg&amp;oe=6900105C', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2287,23 +2297,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45937.99167824074</v>
+        <v>45953.43668981481</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45937</v>
+        <v>45953</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>23:48:01</t>
+          <t>10:28:50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2315,7 +2325,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AL4zutHVRNoQ7kNvwG-74NV&amp;_nc_oc=Adn9apcaCGLyHkIQXL75WsNpd8HcV4QhSNYz84a6cdemXj_CQ0FEHiJ9v8ieKdULx00&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfceG_9O8jbV7gocQaEs01xMq-WSk8uUKRtfo-IxNHKe9g&amp;oe=68FEE3B2', 'profileId': 'pfbid02CgRiArubYtrn7KU2WvsHiP5PYtaMCswyDBjEs4AgW1wtGpMMB1P346m6rR25W7ctl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VI4oB_1HhoQQ7kNvwEVTKK7&amp;_nc_oc=Adm1UeuzvDfUxDuhOILIGGSijB7V1o_0XW_9n-7Z6qX4cejf2Hpsb6q1sDkYwpkYmDY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeDJyvQWNkNOCQRyoppVSo8UTmsyPtFhnJUGgraz1RkEg&amp;oe=6900135E', 'profileId': 'pfbid02rCL4c3tNE4anctqR4LLjBLLjrMG2UvVtuQ2TCoZzenBYLs1m6TNQQ58uiqMqp8GGl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2341,23 +2351,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45943.06457175926</v>
+        <v>45937.99167824074</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45943</v>
+        <v>45937</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>01:32:59</t>
+          <t>23:48:01</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2369,7 +2379,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sbc8j5qdDYEQ7kNvwEnEukg&amp;_nc_oc=AdnNFDRavj0MxQ-0cLs34gDawBeFmbLdQ_-bRJJHevZfd6WQYc2nr3WCiTdRfxPUM9Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfeJvqEd41Sue8ElwY83OulS8Dl2n_HVJ-KxpP1VjZ3Bhw&amp;oe=68FEC295', 'profileId': 'pfbid0RFJ8UgucvQ2BpEtJVBbkjovYtrQPsHnSEkuqqM9Mxr45S8HBeuGfiegj2bEAFoXQl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AL4zutHVRNoQ7kNvwGoCAFj&amp;_nc_oc=AdmKF5Ao9bbyYQdgRmVq-r9VZa-mWVqrnGGDnLNzcIDLYx6z6oEMuPv3izOzZxFQrkY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeFz72Y1yy8rUlVgBDqfknkX5G3UbcoGwIEtnzTWvpudA&amp;oe=68FFFCF2', 'profileId': 'pfbid098nXFhHEhdBVK99kLhxa3RNf21skGtFGTWTnDdjhZY5pw6LuTy243XcREjW42mFLl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2395,23 +2405,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Valentina WHAAAT, si es vdd</t>
+          <t>Precio</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45935.20770833334</v>
+        <v>45943.06457175926</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45935</v>
+        <v>45943</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>04:59:06</t>
+          <t>01:32:59</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2423,7 +2433,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nWjRihbIwzkQ7kNvwHKOph_&amp;_nc_oc=Adkv1G4VBD7IgqVWENE4N1tbe3haXkWesxSUjzOFTSiWYe90PeuBCzqga0u3ilfnoOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfdKiBLtr_MbERJKxIOeX2uC0IGVcCvFW1eL-KuJ64DO1A&amp;oe=68FEC9FC', 'profileId': 'pfbid02NFS3apUFXRC4rHRiHRp8sz4VyVgs2AgMV87SdJc1UTJsaBBYEhT8jZgPByFfMsDJl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sbc8j5qdDYEQ7kNvwETrTdb&amp;_nc_oc=AdkapRjxn_P9OIHiW5JGyFTmyK0ThZgt_56SFAzlkWD7_CdEU29vhwNDsXM5JnGb9M8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffASqhB3oUq5MS85cbsSVauChFd1ksNL2KUzmAbFw5E8w&amp;oe=69001415', 'profileId': 'pfbid02V6jqfMqSmnRiXNvD2Vvdh9oGhrFZVNT3t5g8ZjDLWKF9xZdd3NuZtsga4NNwSWcCl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2449,23 +2459,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pero posee aspartame o sacarosa?</t>
+          <t>Valentina WHAAAT, si es vdd</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45943.27204861111</v>
+        <v>45935.20770833334</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45943</v>
+        <v>45935</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>06:31:45</t>
+          <t>04:59:06</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2477,7 +2487,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DKZT_08VDloQ7kNvwHXpLm-&amp;_nc_oc=AdnD2P_4J-3uu_zJJkNm5XTwiIl1XOq35n9-EnvWMNHh7jjwgNJpTS5JGx0dk9s6feY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfcXCwcdQr71yMgdE0z5N7_Oggpxi7wC0rxwuU-yoQjH3A&amp;oe=68FED4C7', 'profileId': 'pfbid0Vs5XgPsuSdcUtLk3z88LbJceYpYKCogyq9hMQUisqccqJemKbrFRrA55CbNEGoR8l', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nWjRihbIwzkQ7kNvwHbaKwa&amp;_nc_oc=Adn4rimF8sw0hww5RaEHghVM6YWvpx52INKqqpxycP1BDbQulwkX00Dmcti7gdf7CBQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeJ3YjbpgmfdiyI5Q5BkjZduO-p5OWZ94ZSSJ33XjPEtg&amp;oe=69001B7C', 'profileId': 'pfbid0JhnrfeqtgBkXv9UrVhM7St1HCp9JbmvEVdV4ARkFofm3bQpk4fPbuGMRCyuyp44xl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2503,18 +2513,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Pero posee aspartame o sacarosa?</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45945.38604166666</v>
+        <v>45943.27204861111</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>06:31:45</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2531,7 +2541,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid02yeoPe9MgtWVreuVnRwASWevTYpo7m6zsepu9eYHjXMujRxP4MdgAwTHp5FA5PYtLl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lNQC0NzJpuYQ7kNvwF85Vfl&amp;_nc_oc=AdkmHwE9URqMi1hABfCvSzQ7z31WRzQmipsWRDU8eKFET-F5Ph4vTdoQ46-RlShH6zs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfdlAxorC4r2sN5HZBcRLYKgmuryPlJKSvUWyPXYVMfs4w&amp;oe=68FEB7DF', 'profileId': 'pfbid02yeoPe9MgtWVreuVnRwASWevTYpo7m6zsepu9eYHjXMujRxP4MdgAwTHp5FA5PYtLl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DKZT_08VDloQ7kNvwFgdGEi&amp;_nc_oc=Adm9SgmAoCkjO13DEFFc1yBNq-0D6c3MGP5YbNjIwHQwHfxFWfAIVOIZ1zZXnhj6qqc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afe66v6ZLMv-tTbohl3GV-GekL4_MTxHtIO1O1aKUOLiRw&amp;oe=68FFEE07', 'profileId': 'pfbid02ZEZiJREXUKQ7W5mQDJpDBkyu4AAzBZcbDmh7Fjx4zux2481TPrTMunhFhA3aoWmrl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2557,18 +2567,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Es q no falta el ignorante</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45947.77100694444</v>
+        <v>45945.38604166666</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45947</v>
+        <v>45945</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>18:30:15</t>
+          <t>09:15:54</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2585,13 +2595,13 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZtLnFuOLNoQ7kNvwGdZ4dM&amp;_nc_oc=AdkyfDuTwMdQ-pbAmNLvD3O6jNc6sg6EC2mfL7YFULmwaihpTx23-VO36G8dsMYRTzM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=4V4UXj_vJSYGS4ohQcgnaQ&amp;oh=00_AfeBrns7OCGJLZa-0JggqWH1FUJHY72QSxDbm5lX9wSZYA&amp;oe=68FEB16A', 'profileId': 'pfbid02SSCwZMFFHdRAxnnGsBugu98g42groNtVp9VAHiChZYZZfx8LzDZuvMCKPZpweC1bl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid0udCgALA8DY1T2UGGP2bGXjThpASz1ubq82kv5nnJrcPRqs1nfoarWvfycurVmpVHl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lNQC0NzJpuYQ7kNvwFaKPXp&amp;_nc_oc=AdmmNtjIsTgkOcLUEIR1JjVcKwZPZgTJLUI6ShMAxRsVC3NohHzsG2amdOKwhFAH4XQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffGjMug1wupnFEreIeMJhb7lt_RA8zYFzz9r79kS31DJA&amp;oe=6900095F', 'profileId': 'pfbid0udCgALA8DY1T2UGGP2bGXjThpASz1ubq82kv5nnJrcPRqs1nfoarWvfycurVmpVHl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2605,16 +2615,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Es q no falta el ignorante</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45947.77100694444</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>18:30:15</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2625,17 +2649,17 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZtLnFuOLNoQ7kNvwGhlh28&amp;_nc_oc=AdnxYmzsD9ym0iABR9jofoTc1Ce7ZCQYwBjQkfQdbp65TlLkVzUyM4P07-g7RHHzIGA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfdZtyF8WNCMx1rlwv--y9IyrqblL3eSO0rFr4m6tqX3OA&amp;oe=690002EA', 'profileId': 'pfbid0NtZkeBctSRuLeWQ7W2wb5SGxve8tGfjLWMjt36LLKKyHsHhE9dw6nwjaqhogBqgnl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2645,16 +2669,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Popolopolo</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45953.43538194444</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10:26:57</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2662,20 +2700,16 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02r3ozkF1wp6emy4jSbjezzpNEzedZnvGoy8K16dY9L38wjGV1fuEvCnvjPujhXDycl?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=09O5aDG1DkAQ7kNvwH_AWIo&amp;_nc_oc=AdkS3fKOCp3X2frERt9MC9EA4-FqE6BfbnvM56ke8r0rvC9Q2Ei8YqVBDotFTT2sISigxz6jcvyk8QgH6IWYKwQ2&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=FNNIVoRnaYeU1G9lw6vpnw&amp;oh=00_Afckp-hEX2l-S7xhyspsrjRDFGZ-TUSLp6-znm1NEzXKEg&amp;oe=68FFFD4C', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2689,7 +2723,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2713,17 +2747,17 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2733,7 +2767,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2750,20 +2784,24 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2773,26 +2811,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>okis</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>45946.71511574074</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>17:09:46</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>0</v>
       </c>
@@ -2802,20 +2828,16 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d0749a1&amp;x-expires=1761231600&amp;x-signature=itsRibBhoCVQUClu1rKiHgUsT6o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2829,24 +2851,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>tremendo waffle jummm</t>
+          <t>okis</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45952.22988425926</v>
+        <v>45946.71511574074</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>05:31:02</t>
+          <t>17:09:46</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2865,7 +2887,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b624ce2&amp;x-expires=1761231600&amp;x-signature=4FYF%2Bf%2FyWR301ISZvQbtxT2O7vg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ab93d3c4&amp;x-expires=1761314400&amp;x-signature=3irHeTiY2iGAKGcoYM7Kvnhv7Us%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2913,22 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Q guaflesote 😏</t>
+          <t>tremendo waffle jummm</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45946.27930555555</v>
+        <v>45952.22988425926</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45946</v>
+        <v>45952</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>06:42:12</t>
+          <t>05:31:02</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2921,7 +2943,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=624b3c4f&amp;x-expires=1761231600&amp;x-signature=YDiCopugdvq8hCQrU5NLX63RHac%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d39fb7e9&amp;x-expires=1761314400&amp;x-signature=HdgOLOZ357KOf0PJhp3mVbR6A4M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2947,22 +2969,22 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+          <t>Q guaflesote 😏</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45952.14332175926</v>
+        <v>45946.27930555555</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>03:26:23</t>
+          <t>06:42:12</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2977,7 +2999,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d931ae56&amp;x-expires=1761231600&amp;x-signature=upTlIWYJ%2B9WRUp9liPDw%2FcUTwt0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e33ddbd6&amp;x-expires=1761314400&amp;x-signature=s2YsUVEoJzTl0TIJVlS5FvbcHls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3003,37 +3025,93 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
+          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45952.14332175926</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>03:26:23</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4e62644e&amp;x-expires=1761314400&amp;x-signature=oWjrhYa9yFbvYCEQeSyi%2ByzDAyo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>43</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>Eso te engorda...</t>
         </is>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G57" s="2" t="n">
         <v>45939.24972222222</v>
       </c>
-      <c r="H56" s="3" t="n">
+      <c r="H57" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>05:59:36</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80a32666&amp;x-expires=1761231600&amp;x-signature=ZEWZGxGVthFH%2BT%2FYlxBbaKaFP6M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66ea62ea&amp;x-expires=1761314400&amp;x-signature=3pOzzsxrtgnYqUNK1Ae9OUW%2Bl6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3732,8 +3810,10 @@
       <c r="D32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3858,11 +3938,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>110212000</t>
+          <t>1100212000</t>
         </is>
       </c>
     </row>
@@ -3883,8 +3963,10 @@
       <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="40">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +1611,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036miztuHkjWcwUEPgh4SxXjfR6WiBmd48HfHVGSp3Nfzrnjct8iECWXQ5xrdyHeHDl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwHV76Vv&amp;_nc_oc=AdmuOKAKc6bv55csteOPoh7O7f0m6MDfXK6xkWrDhrGcbOvkeDSpYHKZRsw5cqpoMcI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=tw8XK1x4AzSHzcdYOesNpQ&amp;oh=00_AfeP3aRmmcGw-86MeirYXKFWL29C0wsQTS04H1qKYC-gNw&amp;oe=68FFE65A', 'profileId': 'pfbid02Zx4hmS2tFZQriXe39sbkWM4SJWEBFpm3tcX7xpze4KBgzJqFZYfU6MF1cQoVCGUil', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid023E5oyjfPtC7RubnFbPkFf5H6fHdHuacHdiVADN7LqfR4QTEJc2izPJ7NmPTuUDNFl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwGPjjM2&amp;_nc_oc=AdkdHvUlMqK1BKjZaaHaEVKreSn2CW69BRGZhLJ5559lWGnts4Ob6nQtOoybwDsHEWE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=SSC0SrryEX5lpaIfBeHziw&amp;oh=00_AfftrbgS4HOacP3_WPRV8RHexvvdE129XBTFlcJOt6CrxA&amp;oe=690137DA', 'profileId': 'pfbid0WQRWrGQXQFgCBS4CLDiwAaRB5DHN9pf5zsXW9DoYZ2ZT5D6ymEWR8Hy3zHLFbG6Fl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02L6iQRNZdKubyp1DUMKkewU76w5GTqwbbf3NBW1webbaUWZHDQfpekvrkyK1bfPf6l?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pDRsOMfgot0Q7kNvwGumzdr&amp;_nc_oc=Adne1BGKpfbc8CjD-EU1LE8Ul4KBOszxjGDvZknyYtEbBBGCPMhuTH2Tqk0O2P3I7HU&amp;_nc_zt=26&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=1NJneeYfxup4LeUvqgk5MA&amp;oh=00_Affr33W8EgbGdNwRoTebL6w9itKtjD9ddKItEw4-kgM0FQ&amp;oe=68FFF030', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=nZcKe_HphWYQ7kNvwFcHESG&amp;_nc_oc=Adk29furWWyJ2c7zdK_FZpuI-_HgahUVurFnFU8ThfeqRHVoaj5_MSf-4CO6EYW2X-U&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=1NJneeYfxup4LeUvqgk5MA&amp;oh=00_AfdQ7VegUOOt-I6w-sSThsj8OkipECHVCWig1Kf5VKinFQ&amp;oe=68FFED6B', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0G57gwZN4ewcG8mpgCLyHXDDprc4UWjiioaksfCWbL3oYrfXF3WP1MLZMFDMoyvSWl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pDRsOMfgot0Q7kNvwHqseCx&amp;_nc_oc=Adlvq7KkLy6t3HGFU1sGK_YFW8q9XQRyuNpVOi4htyjlu1BaoL65OLCfCFLydsHLdJE&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=a4Fw3gtjrTiTi9MYHI2IjA&amp;oh=00_Afc6lMTGrL_-mCmxkK6FYzpi4zRD2dMTCeDNd_UpHLFnlg&amp;oe=690141B0', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwEP0H2k&amp;_nc_oc=Adk-quigFYMm4UMQMvw-lbRVI1h5GWchTDj26m6MOyADVLYNSizGQHDFzgN-YSvSCEY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=a4Fw3gtjrTiTi9MYHI2IjA&amp;oh=00_AffFAo3Do-j2TMNuaGS1FoHxapu4fZA0jf9SDvG8fMm1YQ&amp;oe=69013EEB', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
         </is>
       </c>
     </row>
@@ -1903,18 +1903,18 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mejor no me cuido 🤪</t>
+          <t>Yo</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45949.14236111111</v>
+        <v>45954.17839120371</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45949</v>
+        <v>45954</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>03:25:00</t>
+          <t>04:16:53</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1931,7 +1931,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwG79CrP&amp;_nc_oc=AdkgEa_kotjUFQsiLUxlsB2aNDrDjgjo44Ffj0e6SrHvG_2PYHEcqt2pV_KznpZtH6s&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afe9XDpiFK9oXlMP6K33UoDbTYiaHS1avapjz4Hr668l5A&amp;oe=6921B27A', 'profileId': 'pfbid0MfoB9cuq221ybAZWEd8b835C8VwhTyzNpeZys1oAHbRdgmMwCjGxNmHDpfzE5jXrl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GV0_HALPkgEQ7kNvwE_43w1&amp;_nc_oc=AdnpCiG6jSgqck430HyQteInZ55FuHx-zbZ6PEdagCknSfHT1jVU98xpBCFpMIwEy5k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_AffypgwsNF9MihizOfNBDpYUUzYl_V2k7dGbwjcdF6Ggag&amp;oe=69013B39', 'profileId': 'pfbid031GcZDBEViXRNUwk3vqiLFVLcVtWksnjEioBxpsPHTnUZ595WSumBS4ZDhrcQv4S3l', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -1955,16 +1955,20 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mejor no me cuido 🤪</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="n">
-        <v>45942.01982638889</v>
+        <v>45949.14236111111</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45942</v>
+        <v>45949</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>00:28:33</t>
+          <t>03:25:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1981,17 +1985,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uzH9cDBXYxHFpmjM4iJdP6teTLvvXy6pykYqzd8aTXaabchMTSbHKR612YozhGuBl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=L0GQksXS6uwQ7kNvwHL7LS9&amp;_nc_oc=Adlgw7ywl80IlRINipjLtlga8y4Wh6r33x1LyTiYwr5oHleX0rC-F_dw6IUbkdnkFVk&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Uzz-07OYMSUtrx6UFSJ0iw&amp;oh=00_Afe_xAHsD7mTmGhy90VA27XQl68TxAo0s-0v0ioOZlIgvg&amp;oe=68FFFA3A', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwExfYLE&amp;_nc_oc=AdkTe1AW6BEiP8DRkUxk1CIiPGqcgGpUfh9YCMivYWE5ZXqsD4fkCA2Oarscfue4Ufg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Uzz-07OYMSUtrx6UFSJ0iw&amp;oh=00_AffWGRq9f9HfBPT3yOyIF8gUg2EtTEUYOAT6ImBEq67gVg&amp;oe=68FFFEEA', 'profileId': 'pfbid0368GNbPR4JXjQ2RhfqN53eKTb7iTqWRnEAYgwRi6pz537JaKkfovXPZaSNqMFKYEJl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwFkMdbs&amp;_nc_oc=AdnMmiTxpAESBAoUcStcZsRorOs5CCzomr5AdwEXj1uEoBK5U2w7zSnLv5zLaIb2r10&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfeNrtk7CTHRj04RCFJlk9T3ixpH3E1UiREMmKglF7ucIg&amp;oe=692303FA', 'profileId': 'pfbid02R3HMmeGT3cz7cjMrAwqbuCAkovbZKuV6YBm5htY5Tk5rqkfbhCtDNbHm8CLKFapKl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2001,16 +2005,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
+      <c r="G36" s="2" t="n">
+        <v>45942.01982638889</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>00:28:33</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2018,24 +2032,20 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=L0GQksXS6uwQ7kNvwFEMNYr&amp;_nc_oc=AdmcOhWWVEfxOFTDMMHj58mtIfqEn3YtuLFXzrNxFu4oFbz-4y_0lBUZ-byKLgI_Tbg&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc3-1.fna&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_Aff2Y_Xbo0YW7WEG-G1cpTc0wdAV_J5iLcYnw3KA8dYfMg&amp;oe=69014BBA', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwEVezGM&amp;_nc_oc=AdkkPlb_mgePElLc7h7o8qPdXnfB2hLLNXaZy4_8aLnxI46FwLJhZHpSmEzeSjjs6qI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_Aff543Opeh24ISm-ICUKLL9-zV9FLj4KHngkUJ1DEQDuGA&amp;oe=6901506A', 'profileId': 'pfbid022adBgDnhTJTNvsxTZyRJRpU9PNAt8uubDPw6jatV2WoNCjppgjNaUy5uV8jaVAsKl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2045,7 +2055,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
+          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2062,20 +2072,24 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2085,7 +2099,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2102,24 +2116,20 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2129,30 +2139,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Amén 🙏🙏 Amén</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>45942.77177083334</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>18:31:21</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2160,10 +2156,14 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nrTGu5oKUakQ7kNvwFqaECJ&amp;_nc_oc=AdmJoillgSncnWmgVOL-snCgtQQgHQJWDjSdCPGLYNtmCiSGlZzs55ltpv-fliAgtGo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afe4V4jOB9bBMX3pxivs9TxFZTnh3hcrIfZ4URAxz_zAeQ&amp;oe=6921AB50', 'profileId': 'pfbid0JBkxPvHsNhEmDqKDW39PcAvshRDtN6VNRNoHHDmwQxgj2krg6kZAj8J2LY1tMzqRl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -2189,18 +2189,18 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Amén y amén 🙌</t>
+          <t>Amén 🙏🙏 Amén</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45940.38982638889</v>
+        <v>45942.77177083334</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>09:21:21</t>
+          <t>18:31:21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2217,7 +2217,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lH7GQjkAzLoQ7kNvwGzXRiu&amp;_nc_oc=Adnv3SQW8VeZLO6v6OFdw2QL_nHIjJMRR2PKqgJDKB_jllBKot_sjT094S4bm6ltSP4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffdPtK_V0EzsKnSCF9SM0NQ6GHzPOUGWuqAMzXdQn4NKA&amp;oe=69001E27', 'profileId': 'pfbid0RX8cRJz3NebLVUiVbSR2jyEvhAL9BSXih3VQfacg51SxDuFvfU5J4rHNNEXUPjKHl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFJhsCn&amp;_nc_oc=AdkTi7KKydsVmVoeek8zo_vF84N9yFEkSFKtAeSBb_JExivrY02cw3GX4DIqFbf0ztE&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeMiVDPCupTXzE7pozg167TRZlnF6MzI90tIxf_K4itJA&amp;oe=6922FCD0', 'profileId': 'pfbid02N3CfabDhE4XfbL3z2AXEB5vXJDtSUjqJM6tH7XYsQV93YEa7vKSMQn91q9K6s6Kyl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2243,23 +2243,23 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A como</t>
+          <t>Amén y amén 🙌</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45950.43540509259</v>
+        <v>45940.38982638889</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45950</v>
+        <v>45940</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10:26:59</t>
+          <t>09:21:21</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2271,7 +2271,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwEKrQGS&amp;_nc_oc=Adle2qbIGkuZUlxfok-wPtH0g9PPXnNWInLXU_2vjWWpjQN9BkL1pg8iZHjLYS_kiE8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afey829zWk1DukNtA8GFGKuxhOyDN-nRJUeKJjg5ETLJyg&amp;oe=6900105C', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwEgQc7t&amp;_nc_oc=AdkhSD_tdQMM7q8ewaFJBJKMDlGs3YoipSPbtQeIvyL1uGxp_WIxA2VEAHTeWSVu3wQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeSdTCoIwTft1oZHVXYqhPOznSY9ebcwst9fRfXwbmd0g&amp;oe=69016FA7', 'profileId': 'pfbid02Utco3LLfQJ38CnW9o5medjmEzYzc38LjMRNJ7McdLqSmabjTB9BDF3uvaEEZkPqPl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2297,18 +2297,18 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bajen el precio</t>
+          <t>A como</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45953.43668981481</v>
+        <v>45950.43540509259</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10:28:50</t>
+          <t>10:26:59</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2325,7 +2325,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VI4oB_1HhoQQ7kNvwEVTKK7&amp;_nc_oc=Adm1UeuzvDfUxDuhOILIGGSijB7V1o_0XW_9n-7Z6qX4cejf2Hpsb6q1sDkYwpkYmDY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeDJyvQWNkNOCQRyoppVSo8UTmsyPtFhnJUGgraz1RkEg&amp;oe=6900135E', 'profileId': 'pfbid02rCL4c3tNE4anctqR4LLjBLLjrMG2UvVtuQ2TCoZzenBYLs1m6TNQQ58uiqMqp8GGl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwHvt3c6&amp;_nc_oc=AdnQ9c_aYP334gq8F-yNEYmDCK2cVbij4yavEJziBlpxHTApxTIuoKqUQBp276ojCF8&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeTweKFEecOgSFi6ranS_QCsYBpKC9CmcVsELS7eCXslA&amp;oe=690161DC', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2351,23 +2351,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45937.99167824074</v>
+        <v>45953.43668981481</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45937</v>
+        <v>45953</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>23:48:01</t>
+          <t>10:28:50</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2379,7 +2379,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AL4zutHVRNoQ7kNvwGoCAFj&amp;_nc_oc=AdmKF5Ao9bbyYQdgRmVq-r9VZa-mWVqrnGGDnLNzcIDLYx6z6oEMuPv3izOzZxFQrkY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeFz72Y1yy8rUlVgBDqfknkX5G3UbcoGwIEtnzTWvpudA&amp;oe=68FFFCF2', 'profileId': 'pfbid098nXFhHEhdBVK99kLhxa3RNf21skGtFGTWTnDdjhZY5pw6LuTy243XcREjW42mFLl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VI4oB_1HhoQQ7kNvwGJuvji&amp;_nc_oc=AdmGI3mW9OsPv8O1ma701pIzJDsCT9htc6Jm7wAX-q1F4JhlLD60OjtkwgPoi6DJZh0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffGIOzq98ugEuhkEaS9qE18a529dB73bj8z-M_zF0377A&amp;oe=690164DE', 'profileId': 'pfbid0negsgtG1NpsWCNx2JbYvzA8kQynd9ieUGJd17JC7WasxyCrqPAAXMdWa6HacQVpRl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2405,23 +2405,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45943.06457175926</v>
+        <v>45937.99167824074</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45943</v>
+        <v>45937</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>01:32:59</t>
+          <t>23:48:01</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2433,7 +2433,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sbc8j5qdDYEQ7kNvwETrTdb&amp;_nc_oc=AdkapRjxn_P9OIHiW5JGyFTmyK0ThZgt_56SFAzlkWD7_CdEU29vhwNDsXM5JnGb9M8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffASqhB3oUq5MS85cbsSVauChFd1ksNL2KUzmAbFw5E8w&amp;oe=69001415', 'profileId': 'pfbid02V6jqfMqSmnRiXNvD2Vvdh9oGhrFZVNT3t5g8ZjDLWKF9xZdd3NuZtsga4NNwSWcCl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AL4zutHVRNoQ7kNvwGBZj2W&amp;_nc_oc=AdkBfOmo1tomjN4IdILfMlqaidqKppSPL9KG_Nf09EkzQnXPXaE6AjdF7iMc0DTZmC4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfdaHFheS4aUgLHjTntFljYb11RLh8azyhCnsA17GlxETQ&amp;oe=69014E72', 'profileId': 'pfbid02CWGhsidrjDcrddej6E3MUzSQ9wUcAtz5MQ8QAbko4KNR1FGx5rpQeUwjB9qdqWbyl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2459,23 +2459,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Valentina WHAAAT, si es vdd</t>
+          <t>Precio</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45935.20770833334</v>
+        <v>45943.06457175926</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45935</v>
+        <v>45943</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>04:59:06</t>
+          <t>01:32:59</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2487,7 +2487,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nWjRihbIwzkQ7kNvwHbaKwa&amp;_nc_oc=Adn4rimF8sw0hww5RaEHghVM6YWvpx52INKqqpxycP1BDbQulwkX00Dmcti7gdf7CBQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfeJ3YjbpgmfdiyI5Q5BkjZduO-p5OWZ94ZSSJ33XjPEtg&amp;oe=69001B7C', 'profileId': 'pfbid0JhnrfeqtgBkXv9UrVhM7St1HCp9JbmvEVdV4ARkFofm3bQpk4fPbuGMRCyuyp44xl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwFCE1Vi&amp;_nc_oc=Adnc-T7x0I32wDL3CUCAmEXF0C3FWx0iq_LFP6XrJ3S6PE095VDuRYDFO5LJWlgq0Ng&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffLuZSgXOLM34RNEEE6EcT4IA9R-bKxVJZokOHIPC6xXA&amp;oe=69016595', 'profileId': 'pfbid0RZ6ekCD5vTDatmKgYxpdT1bsedzNJ9qipnezTfPYzRHx4pf9ofhgxvJkuopH7fEAl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2513,23 +2513,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pero posee aspartame o sacarosa?</t>
+          <t>Valentina WHAAAT, si es vdd</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45943.27204861111</v>
+        <v>45935.20770833334</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45943</v>
+        <v>45935</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>06:31:45</t>
+          <t>04:59:06</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2541,7 +2541,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DKZT_08VDloQ7kNvwFgdGEi&amp;_nc_oc=Adm9SgmAoCkjO13DEFFc1yBNq-0D6c3MGP5YbNjIwHQwHfxFWfAIVOIZ1zZXnhj6qqc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_Afe66v6ZLMv-tTbohl3GV-GekL4_MTxHtIO1O1aKUOLiRw&amp;oe=68FFEE07', 'profileId': 'pfbid02ZEZiJREXUKQ7W5mQDJpDBkyu4AAzBZcbDmh7Fjx4zux2481TPrTMunhFhA3aoWmrl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwFYbk7R&amp;_nc_oc=Adl8CQLjb-aFNO8LhQLnHM-XbN02X919XkCzrRcHdp6M6iZkmxKQfqpdi3goWhdqDL0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffrxC6kK1yneHXf5CVxZHOdvMX4VnIwqc9IEZlSQU4S9Q&amp;oe=69016CFC', 'profileId': 'pfbid02N5H3HgCWhhGTY28WWuJuiyUxG4k84yjCAGwDgxVqFDaSybMTeXMr2ccHbWSoqJL6l', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2567,18 +2567,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Pero posee aspartame o sacarosa?</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45945.38604166666</v>
+        <v>45943.27204861111</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>06:31:45</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2595,7 +2595,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid0udCgALA8DY1T2UGGP2bGXjThpASz1ubq82kv5nnJrcPRqs1nfoarWvfycurVmpVHl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lNQC0NzJpuYQ7kNvwFaKPXp&amp;_nc_oc=AdmmNtjIsTgkOcLUEIR1JjVcKwZPZgTJLUI6ShMAxRsVC3NohHzsG2amdOKwhFAH4XQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AffGjMug1wupnFEreIeMJhb7lt_RA8zYFzz9r79kS31DJA&amp;oe=6900095F', 'profileId': 'pfbid0udCgALA8DY1T2UGGP2bGXjThpASz1ubq82kv5nnJrcPRqs1nfoarWvfycurVmpVHl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwHLyOl5&amp;_nc_oc=AdmWrQCO4rUYobirSC1i06-xd2EKT2xU8JndgGoAwAha-gmAQCiaegoEMFvgXSyHgAo&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_Afd0vEZ302lTqG_q_zrZIHdyLO94hbkQ1jIKVXJdamzg8w&amp;oe=69013F87', 'profileId': 'pfbid0VgvXPFcAd8dWSRz1X8c1hR8VvXsyyJq7iNMXW5iU343XjgMeKVoZ3PUvYtYRCrNHl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2621,18 +2621,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Es q no falta el ignorante</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45947.77100694444</v>
+        <v>45945.38604166666</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45947</v>
+        <v>45945</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>18:30:15</t>
+          <t>09:15:54</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2649,13 +2649,13 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZtLnFuOLNoQ7kNvwGhlh28&amp;_nc_oc=AdnxYmzsD9ym0iABR9jofoTc1Ce7ZCQYwBjQkfQdbp65TlLkVzUyM4P07-g7RHHzIGA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Sy6fhxG1pO1rffe8lCm1jA&amp;oh=00_AfdZtyF8WNCMx1rlwv--y9IyrqblL3eSO0rFr4m6tqX3OA&amp;oe=690002EA', 'profileId': 'pfbid0NtZkeBctSRuLeWQ7W2wb5SGxve8tGfjLWMjt36LLKKyHsHhE9dw6nwjaqhogBqgnl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid02yUePM15x4xyeUS4iYZAHvovnbprSjYr8ByNqYbQeeuzUYW5EceY9qEmVzZsKh3g5l/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwGmuNDD&amp;_nc_oc=AdkFm00oT_liWJYwv66sgMlywJs2tCevVXvyMML-zLETWtp_thRkuw3yVSXjOPTvkj4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfcA6EcU3sSlHwUzGqQ-IYpPCrjzmle0dmaKde7WrNGoBA&amp;oe=69015ADF', 'profileId': 'pfbid02yUePM15x4xyeUS4iYZAHvovnbprSjYr8ByNqYbQeeuzUYW5EceY9qEmVzZsKh3g5l', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2669,24 +2669,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Popolopolo</t>
+          <t>Es q no falta el ignorante</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45953.43538194444</v>
+        <v>45947.77100694444</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45953</v>
+        <v>45947</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10:26:57</t>
+          <t>18:30:15</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02r3ozkF1wp6emy4jSbjezzpNEzedZnvGoy8K16dY9L38wjGV1fuEvCnvjPujhXDycl?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=09O5aDG1DkAQ7kNvwH_AWIo&amp;_nc_oc=AdkS3fKOCp3X2frERt9MC9EA4-FqE6BfbnvM56ke8r0rvC9Q2Ei8YqVBDotFTT2sISigxz6jcvyk8QgH6IWYKwQ2&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=FNNIVoRnaYeU1G9lw6vpnw&amp;oh=00_Afckp-hEX2l-S7xhyspsrjRDFGZ-TUSLp6-znm1NEzXKEg&amp;oe=68FFFD4C', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZtLnFuOLNoQ7kNvwFRQTzy&amp;_nc_oc=AdnkW_zEydcUGmiQrNhMvGopO_p-PhsffF3HRZFNuzZchDISKutRAQXZIM3-T5CwQn4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfceHLnCmFGP_lWb-OP4yjcUQjKLgdQiP7mI8mm41kRTEQ&amp;oe=6901546A', 'profileId': 'pfbid02Sk1TprYiHuosvRDkAw8g7SfQ6EXA9mARFNE19zK66ZQEWp1b52pjZ11cnFCaFnBKl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2723,16 +2723,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Popolopolo</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45953.43538194444</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10:26:57</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2740,20 +2754,16 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nWAoq5Paxpko7LHzbVSEZdc2wqnR4KwqTw7h4Ytfr43b4PSXZayq7M8tCzZLriiil?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=09O5aDG1DkAQ7kNvwFTYsaK&amp;_nc_oc=AdlkS742tyVXQy7fdXCZRSTee7VpsuSRRvZY4cLxSywoxtYqlfHNxmofy3Cc-wQJFOE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=38buDfWwr-GXEFEjq-fV4A&amp;oh=00_AfeanTdEIqk7_apR3eARRmCApE_1eenUs4cQGd7V7n2tmA&amp;oe=69014ECC', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2767,7 +2777,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2791,17 +2801,17 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2811,7 +2821,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2828,20 +2838,24 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2851,26 +2865,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>okis</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>45946.71511574074</v>
-      </c>
-      <c r="H53" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>17:09:46</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>0</v>
       </c>
@@ -2880,20 +2882,16 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ab93d3c4&amp;x-expires=1761314400&amp;x-signature=3irHeTiY2iGAKGcoYM7Kvnhv7Us%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2907,24 +2905,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>tremendo waffle jummm</t>
+          <t>okis</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45952.22988425926</v>
+        <v>45946.71511574074</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>05:31:02</t>
+          <t>17:09:46</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2943,7 +2941,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d39fb7e9&amp;x-expires=1761314400&amp;x-signature=HdgOLOZ357KOf0PJhp3mVbR6A4M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ce657a2&amp;x-expires=1761400800&amp;x-signature=JeNSNHIHO60GtK7KeGMr0E4JpnM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2969,22 +2967,22 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Q guaflesote 😏</t>
+          <t>tremendo waffle jummm</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45946.27930555555</v>
+        <v>45952.22988425926</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45946</v>
+        <v>45952</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>06:42:12</t>
+          <t>05:31:02</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2999,7 +2997,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e33ddbd6&amp;x-expires=1761314400&amp;x-signature=s2YsUVEoJzTl0TIJVlS5FvbcHls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7adfe24f&amp;x-expires=1761400800&amp;x-signature=MQI2s983HzTReISuJIWBlzy%2Fxqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3025,22 +3023,22 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+          <t>Q guaflesote 😏</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45952.14332175926</v>
+        <v>45946.27930555555</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>03:26:23</t>
+          <t>06:42:12</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3055,7 +3053,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4e62644e&amp;x-expires=1761314400&amp;x-signature=oWjrhYa9yFbvYCEQeSyi%2ByzDAyo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17a89788&amp;x-expires=1761400800&amp;x-signature=tMBgTARvg1KwbRhY8KfrLMAVXGg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3081,37 +3079,93 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
+          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45952.14332175926</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>03:26:23</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef7cd386&amp;x-expires=1761400800&amp;x-signature=OcShCuN8NZPSjCBIwRwVMunXD50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>43</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>Eso te engorda...</t>
         </is>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G58" s="2" t="n">
         <v>45939.24972222222</v>
       </c>
-      <c r="H57" s="3" t="n">
+      <c r="H58" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>05:59:36</t>
         </is>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66ea62ea&amp;x-expires=1761314400&amp;x-signature=3pOzzsxrtgnYqUNK1Ae9OUW%2Bl6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=241f4f8c&amp;x-expires=1761400800&amp;x-signature=6RWbXYjGZVo0M1jrmsbkbbyCnkQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3852,11 +3906,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +1611,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid023E5oyjfPtC7RubnFbPkFf5H6fHdHuacHdiVADN7LqfR4QTEJc2izPJ7NmPTuUDNFl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwGPjjM2&amp;_nc_oc=AdkdHvUlMqK1BKjZaaHaEVKreSn2CW69BRGZhLJ5559lWGnts4Ob6nQtOoybwDsHEWE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=SSC0SrryEX5lpaIfBeHziw&amp;oh=00_AfftrbgS4HOacP3_WPRV8RHexvvdE129XBTFlcJOt6CrxA&amp;oe=690137DA', 'profileId': 'pfbid0WQRWrGQXQFgCBS4CLDiwAaRB5DHN9pf5zsXW9DoYZ2ZT5D6ymEWR8Hy3zHLFbG6Fl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036bZzbm21uxhJDXrCePp6TLvjU8wsd6hRuRX9mWDvKz8g7qTng2Hgj6zEsKAcWVN9l?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwG_t5Rv&amp;_nc_oc=Admxg7hk3MS_LM4clCB9DFL76yqhcl0C5k9MrPOBCOPOoQIWeZoRLqdxhuy7uI70QAE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=YrixVntTs3SaZL9FNOmPcA&amp;oh=00_AfdPduiToAbkDD2gflY8zlRIoWGdM8MEmyikDm0LQCsRqA&amp;oe=6902895A', 'profileId': 'pfbid02ZmuhUHm9RwvQBCXjBoqGdhoKsiToY39fHTz3iP3i1AqTacGVo74aCKkSjYN974Bpl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0G57gwZN4ewcG8mpgCLyHXDDprc4UWjiioaksfCWbL3oYrfXF3WP1MLZMFDMoyvSWl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pDRsOMfgot0Q7kNvwHqseCx&amp;_nc_oc=Adlvq7KkLy6t3HGFU1sGK_YFW8q9XQRyuNpVOi4htyjlu1BaoL65OLCfCFLydsHLdJE&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=a4Fw3gtjrTiTi9MYHI2IjA&amp;oh=00_Afc6lMTGrL_-mCmxkK6FYzpi4zRD2dMTCeDNd_UpHLFnlg&amp;oe=690141B0', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwEP0H2k&amp;_nc_oc=Adk-quigFYMm4UMQMvw-lbRVI1h5GWchTDj26m6MOyADVLYNSizGQHDFzgN-YSvSCEY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=a4Fw3gtjrTiTi9MYHI2IjA&amp;oh=00_AffFAo3Do-j2TMNuaGS1FoHxapu4fZA0jf9SDvG8fMm1YQ&amp;oe=69013EEB', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02KvZQ8EHtWPRL9HCdzfuMtJUPA3VfsthM6V2U2MdWjq1YK65thwLw6UX6p7oikLXXl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=PJkFVie71F8Q7kNvwE3eot8&amp;_nc_oc=Adl0mH-7IzYMQERHappcXwuM-hezmE5_qyJZo7IQAbFnRnRQh-ZPUF-6ZSf07KhXZyg&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=K99aBh3gCG1jIcOPKfNH4Q&amp;oh=00_Afcj6bP-7IIugnq93yanN5J6u8o7iqY6zU2G-nLOiD69_Q&amp;oe=69029330', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwHxPyUt&amp;_nc_oc=AdnqkzhP6DawSVTrdIse6-a9RWjlFeIper61ze5rYMFkqctZOZ99QJQqp-82aWO4FJs&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=K99aBh3gCG1jIcOPKfNH4Q&amp;oh=00_AfcR2VIMFtLTxosRpnHpQSEh4lgRXMOWooU1mOTc_qulsg&amp;oe=6902906B', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
         </is>
       </c>
     </row>
@@ -1903,18 +1903,18 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yo</t>
+          <t>Me encanta el yogurt Griego</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45954.17839120371</v>
+        <v>45955.17246527778</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>04:16:53</t>
+          <t>04:08:21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1931,7 +1931,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GV0_HALPkgEQ7kNvwE_43w1&amp;_nc_oc=AdnpCiG6jSgqck430HyQteInZ55FuHx-zbZ6PEdagCknSfHT1jVU98xpBCFpMIwEy5k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_AffypgwsNF9MihizOfNBDpYUUzYl_V2k7dGbwjcdF6Ggag&amp;oe=69013B39', 'profileId': 'pfbid031GcZDBEViXRNUwk3vqiLFVLcVtWksnjEioBxpsPHTnUZ595WSumBS4ZDhrcQv4S3l', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=24838188082496880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzI0ODM4MTg4MDgyNDk2ODgw', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yNDgzODE4ODA4MjQ5Njg4MA==', 'date': '2025-10-25T04:08:21.000Z', 'text': 'Me encanta el yogurt Griego', 'profileUrl': 'https://www.facebook.com/manuel.monagas.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/238794322_109502034773246_3873345908547721675_n.jpg?stp=c276.0.1333.1333a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZdPTkTv3ZIEQ7kNvwE_uDeK&amp;_nc_oc=Adn9sqxuhmu09SEkx47cB7HL9sCYqz5TU2nVTmPL9svR1x2VhKMzdbbF84GI89zKrd0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_Afe6tcgDl16tIwR1WHC4K60_kQs6Lw6abtvNbCybKGZM8A&amp;oe=6902ADF0', 'profileId': 'pfbid02bwif2XaR5Av89vUEW6n8ptCuhqwZ5di9UrErmP9hXtcaKUYErXXURwEGzFN96Gxpl', 'profileName': 'Manuel Monagas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -1957,18 +1957,18 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mejor no me cuido 🤪</t>
+          <t>Yo</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45949.14236111111</v>
+        <v>45954.17839120371</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45949</v>
+        <v>45954</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>03:25:00</t>
+          <t>04:16:53</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1985,7 +1985,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwFkMdbs&amp;_nc_oc=AdnMmiTxpAESBAoUcStcZsRorOs5CCzomr5AdwEXj1uEoBK5U2w7zSnLv5zLaIb2r10&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfeNrtk7CTHRj04RCFJlk9T3ixpH3E1UiREMmKglF7ucIg&amp;oe=692303FA', 'profileId': 'pfbid02R3HMmeGT3cz7cjMrAwqbuCAkovbZKuV6YBm5htY5Tk5rqkfbhCtDNbHm8CLKFapKl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=R3I5w2fSOkMQ7kNvwEef8yi&amp;_nc_oc=Adl7G1vSjidWSCmFlE-C3uDOB7nxYNdFifvc-4eUhMbYLn1kRdrpfTaKTNySpOy2xPE&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_AfcSUX6g22riWx3o3jcRQvxD2BsgyBgnRRWumE4T318P6A&amp;oe=69028CB9', 'profileId': 'pfbid0wiyNJ1c8sLTFHJ9aXgimsVGtCrhzKQYMLUSVUgsy637vBSm4Qs7x7rDiAR7DRzRcl', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -2009,16 +2009,20 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mejor no me cuido 🤪</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="n">
-        <v>45942.01982638889</v>
+        <v>45949.14236111111</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45942</v>
+        <v>45949</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>00:28:33</t>
+          <t>03:25:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2035,17 +2039,17 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yMmLEEY9aeUkYVAu8vPei9kVZPnY7715vbeDQ2BeDKZ62hmwho3RmHCMfS6Ktn1sl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=L0GQksXS6uwQ7kNvwFEMNYr&amp;_nc_oc=AdmcOhWWVEfxOFTDMMHj58mtIfqEn3YtuLFXzrNxFu4oFbz-4y_0lBUZ-byKLgI_Tbg&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc3-1.fna&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_Aff2Y_Xbo0YW7WEG-G1cpTc0wdAV_J5iLcYnw3KA8dYfMg&amp;oe=69014BBA', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwEVezGM&amp;_nc_oc=AdkkPlb_mgePElLc7h7o8qPdXnfB2hLLNXaZy4_8aLnxI46FwLJhZHpSmEzeSjjs6qI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=e13cSLXjzERfAhZZzTJL9Q&amp;oh=00_Aff543Opeh24ISm-ICUKLL9-zV9FLj4KHngkUJ1DEQDuGA&amp;oe=6901506A', 'profileId': 'pfbid022adBgDnhTJTNvsxTZyRJRpU9PNAt8uubDPw6jatV2WoNCjppgjNaUy5uV8jaVAsKl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwEG8b39&amp;_nc_oc=AdkoUJUGBWWutbjXXtSovGmhMjlJAl3IoCjieZnlb2ikJlSoGaTyo3fzHgedTDUErs4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdpdSPAUv0omagxv76Gr11gCb23mWVzFQZ8WxsSF6RE2Q&amp;oe=6924557A', 'profileId': 'pfbid0MVeArUe6CLJhZWUBSemSuqBS1U9vdkxcJ9sVgGBCNvcPQ8zPvN8pBueSWiR7koCal', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2055,16 +2059,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0</v>
+      <c r="G37" s="2" t="n">
+        <v>45942.01982638889</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>00:28:33</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2072,24 +2086,20 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=uRPx6dL8P_AQ7kNvwE-eFKO&amp;_nc_oc=AdnzFyUjQIYj1y8EdOMBZfPm2NMOZ7T_17cFCKXqUfrHGwUDW85qsxrKFTVQPDN37Ro&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_Afcc7KkgUSMghyXJVhFiz7G5fXHEaELdOB8Fx7403NWgkQ&amp;oe=69029D3A', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwGCHVnM&amp;_nc_oc=AdnaEeZJ4HBvgm-9Qso3M-rj-SuhZbtNiB4qz_ASdu2BoHbmyny_NghiG6m8CP5O5vk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_AfeZ7CW8utvgI4Q8HQfUcWUpy8xZb27g0ruv8N6-g3AmhQ&amp;oe=6902A1EA', 'profileId': 'pfbid036S4trtiXJn5LF7UDMXSjF27a9hWjFx2JBVwFJ7zEfj1qs2ZKkcLaD5okxFPc9pZSl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2099,7 +2109,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
+          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2116,20 +2126,24 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2139,7 +2153,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2156,24 +2170,20 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2183,30 +2193,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Amén 🙏🙏 Amén</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>45942.77177083334</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>18:31:21</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2214,10 +2210,14 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFJhsCn&amp;_nc_oc=AdkTi7KKydsVmVoeek8zo_vF84N9yFEkSFKtAeSBb_JExivrY02cw3GX4DIqFbf0ztE&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeMiVDPCupTXzE7pozg167TRZlnF6MzI90tIxf_K4itJA&amp;oe=6922FCD0', 'profileId': 'pfbid02N3CfabDhE4XfbL3z2AXEB5vXJDtSUjqJM6tH7XYsQV93YEa7vKSMQn91q9K6s6Kyl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -2243,18 +2243,18 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Amén y amén 🙌</t>
+          <t>Amén 🙏🙏 Amén</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45940.38982638889</v>
+        <v>45942.77177083334</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:21:21</t>
+          <t>18:31:21</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwEgQc7t&amp;_nc_oc=AdkhSD_tdQMM7q8ewaFJBJKMDlGs3YoipSPbtQeIvyL1uGxp_WIxA2VEAHTeWSVu3wQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeSdTCoIwTft1oZHVXYqhPOznSY9ebcwst9fRfXwbmd0g&amp;oe=69016FA7', 'profileId': 'pfbid02Utco3LLfQJ38CnW9o5medjmEzYzc38LjMRNJ7McdLqSmabjTB9BDF3uvaEEZkPqPl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFK3Lvw&amp;_nc_oc=AdnA6-D01yYm1H-4V4VyTYMpMn6aoV0YB6rX_l-mIajVe2ioLCRhXdD381bZFHYefIg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfdHsQ09vDyyWX32wo6GSuBlRzH_yA6-Hj2dGR22q9JsqA&amp;oe=69244E50', 'profileId': 'pfbid0J1bx6n28ZATzfvgLnHJwyL87kwxpJe6YxRkXVm7CVsYu1Hmk7URFDoQwtV4pFwVsl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2297,23 +2297,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>A como</t>
+          <t>Amén y amén 🙌</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45950.43540509259</v>
+        <v>45940.38982638889</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45950</v>
+        <v>45940</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10:26:59</t>
+          <t>09:21:21</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2325,7 +2325,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwHvt3c6&amp;_nc_oc=AdnQ9c_aYP334gq8F-yNEYmDCK2cVbij4yavEJziBlpxHTApxTIuoKqUQBp276ojCF8&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfeTweKFEecOgSFi6ranS_QCsYBpKC9CmcVsELS7eCXslA&amp;oe=690161DC', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwHJVuR9&amp;_nc_oc=AdmrpXQYRW0PZ0ukY3iUFw5QLGPqrF6U8U_9Owoy5-jOj9dzCrAbCVJ3U_Zjaoyf1uU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffgROx71uvKtSXuavb0cBqVmUXTaVvAbp5s8gPpye4E9Q&amp;oe=6902C127', 'profileId': 'pfbid0RLyc8AiJZ1WLERFuxhbhfdd2gprimHahQmpCmf7FwZ8pn4HgsFvAkYC7j2XrnqT7l', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2351,18 +2351,18 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bajen el precio</t>
+          <t>A como</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45953.43668981481</v>
+        <v>45950.43540509259</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10:28:50</t>
+          <t>10:26:59</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2379,7 +2379,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VI4oB_1HhoQQ7kNvwGJuvji&amp;_nc_oc=AdmGI3mW9OsPv8O1ma701pIzJDsCT9htc6Jm7wAX-q1F4JhlLD60OjtkwgPoi6DJZh0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffGIOzq98ugEuhkEaS9qE18a529dB73bj8z-M_zF0377A&amp;oe=690164DE', 'profileId': 'pfbid0negsgtG1NpsWCNx2JbYvzA8kQynd9ieUGJd17JC7WasxyCrqPAAXMdWa6HacQVpRl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwFY3Vdt&amp;_nc_oc=Adlhnpr1mSnybgYb6fADxtGZcpwKyeObVuH9y0u9_1dKogJzpETnFeiGY1qDurajoIc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffOCpowwyaUWYK4II3qFHqIoYQzTissiPCwAy89MFu14g&amp;oe=6902B35C', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2405,23 +2405,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45937.99167824074</v>
+        <v>45953.43668981481</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45937</v>
+        <v>45953</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>23:48:01</t>
+          <t>10:28:50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2433,7 +2433,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AL4zutHVRNoQ7kNvwGBZj2W&amp;_nc_oc=AdkBfOmo1tomjN4IdILfMlqaidqKppSPL9KG_Nf09EkzQnXPXaE6AjdF7iMc0DTZmC4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfdaHFheS4aUgLHjTntFljYb11RLh8azyhCnsA17GlxETQ&amp;oe=69014E72', 'profileId': 'pfbid02CWGhsidrjDcrddej6E3MUzSQ9wUcAtz5MQ8QAbko4KNR1FGx5rpQeUwjB9qdqWbyl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=goHOGjCSLXEQ7kNvwFCgSOF&amp;_nc_oc=AdmoLdn9mUNgLT-skTJbYG3J6BSEHJdzTnasGatKFcXvOc-5haCzdTggJ4vo9vh2IRo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfeRX1D8f7-CZpFtJHvrPserGqp3zfzdew5hMwUo0SR1QQ&amp;oe=6902B65E', 'profileId': 'pfbid02r2B4JucdQSxk4oSqBZiHc1dhsib8GbACM9Qttq4ELCcPTV8B3ZTvLpeuQARyzKXBl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2459,23 +2459,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45943.06457175926</v>
+        <v>45937.99167824074</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45943</v>
+        <v>45937</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>01:32:59</t>
+          <t>23:48:01</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2487,7 +2487,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwFCE1Vi&amp;_nc_oc=Adnc-T7x0I32wDL3CUCAmEXF0C3FWx0iq_LFP6XrJ3S6PE095VDuRYDFO5LJWlgq0Ng&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffLuZSgXOLM34RNEEE6EcT4IA9R-bKxVJZokOHIPC6xXA&amp;oe=69016595', 'profileId': 'pfbid0RZ6ekCD5vTDatmKgYxpdT1bsedzNJ9qipnezTfPYzRHx4pf9ofhgxvJkuopH7fEAl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yYP1u8Z6pfMQ7kNvwF22UDH&amp;_nc_oc=Adk5NhK6RA4Q5aCeB3d2WAgANWlO2P9kig_sdyaxdVciSVI_w8hklRZG4X4h8GVUH9k&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Afdo0LsBF6v-clQHj1RFf_-3V3O26vOuoxkjE_f-F_siqQ&amp;oe=69029FF2', 'profileId': 'pfbid08xdWxZ1Vt8LB1sDdVPkkZfbNkotBoSEhG7yRnkaumzHGPXkXxkkUirUZRw2EoEPUl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2513,23 +2513,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Valentina WHAAAT, si es vdd</t>
+          <t>Precio</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45935.20770833334</v>
+        <v>45943.06457175926</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45935</v>
+        <v>45943</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>04:59:06</t>
+          <t>01:32:59</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2541,7 +2541,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwFYbk7R&amp;_nc_oc=Adl8CQLjb-aFNO8LhQLnHM-XbN02X919XkCzrRcHdp6M6iZkmxKQfqpdi3goWhdqDL0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AffrxC6kK1yneHXf5CVxZHOdvMX4VnIwqc9IEZlSQU4S9Q&amp;oe=69016CFC', 'profileId': 'pfbid02N5H3HgCWhhGTY28WWuJuiyUxG4k84yjCAGwDgxVqFDaSybMTeXMr2ccHbWSoqJL6l', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwG-45yR&amp;_nc_oc=AdlCPMeX0x2Bt7L5eOz0asO8sMCVtDMigD9WTWNywUHzBekHc1OBFEZE1AgKuD3yrVA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfeyYxOE6FmMzhxNCug6DygYR-ew7MvPngRDTOcGTWWsNQ&amp;oe=6902B715', 'profileId': 'pfbid02UvaqNDZhxDXCqHdvWWsg7jGDSwbt8SAJwbf2TRWU5yFdV31rr9xLHoSv6t1B5Td3l', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2567,23 +2567,23 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pero posee aspartame o sacarosa?</t>
+          <t>Valentina WHAAAT, si es vdd</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45943.27204861111</v>
+        <v>45935.20770833334</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45943</v>
+        <v>45935</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>06:31:45</t>
+          <t>04:59:06</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -2595,7 +2595,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwHLyOl5&amp;_nc_oc=AdmWrQCO4rUYobirSC1i06-xd2EKT2xU8JndgGoAwAha-gmAQCiaegoEMFvgXSyHgAo&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_Afd0vEZ302lTqG_q_zrZIHdyLO94hbkQ1jIKVXJdamzg8w&amp;oe=69013F87', 'profileId': 'pfbid0VgvXPFcAd8dWSRz1X8c1hR8VvXsyyJq7iNMXW5iU343XjgMeKVoZ3PUvYtYRCrNHl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwHBUirp&amp;_nc_oc=Adk6eyQQi3WURdeZinerJT6gW4WA911yah1Ljz9-tQQHTgW8_kUt13zueRVgeLL2eD8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Aff_JGtIn-uS1K_Yq1ZmCaMbYy99bq18vjg2J0XVakQnXw&amp;oe=6902BE7C', 'profileId': 'pfbid0JXdrNWa9ra6ntK2fg2uhr5i5QF7nNC6HD6YwZtZ96dEgVy2ZfgoKrppuUAQdjTUil', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2621,18 +2621,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Pero posee aspartame o sacarosa?</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45945.38604166666</v>
+        <v>45943.27204861111</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>06:31:45</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2649,7 +2649,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid02yUePM15x4xyeUS4iYZAHvovnbprSjYr8ByNqYbQeeuzUYW5EceY9qEmVzZsKh3g5l/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwGmuNDD&amp;_nc_oc=AdkFm00oT_liWJYwv66sgMlywJs2tCevVXvyMML-zLETWtp_thRkuw3yVSXjOPTvkj4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfcA6EcU3sSlHwUzGqQ-IYpPCrjzmle0dmaKde7WrNGoBA&amp;oe=69015ADF', 'profileId': 'pfbid02yUePM15x4xyeUS4iYZAHvovnbprSjYr8ByNqYbQeeuzUYW5EceY9qEmVzZsKh3g5l', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwH7ys88&amp;_nc_oc=AdlaIZSHD6XxXzG8OVChXfObCuVaKY-xjryosmsjRVULUF6ghuoa3u9ViUTTeYXnliI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffQAmrpZV50eVCu5OsahmTLsit02C-q-Y7bJkUF1U9NKw&amp;oe=69029107', 'profileId': 'pfbid02ZYNEZvXzUZNSmf9uBN815WK1Tx4uV1EWUPmJnPaQ8WDrzKXnUMXdYD8YtNm3AxqKl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2675,18 +2675,18 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Es q no falta el ignorante</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45947.77100694444</v>
+        <v>45945.38604166666</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45947</v>
+        <v>45945</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>18:30:15</t>
+          <t>09:15:54</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2703,13 +2703,13 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZtLnFuOLNoQ7kNvwFRQTzy&amp;_nc_oc=AdnkW_zEydcUGmiQrNhMvGopO_p-PhsffF3HRZFNuzZchDISKutRAQXZIM3-T5CwQn4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=KGMsvqdiiFosCz9RE7atSw&amp;oh=00_AfceHLnCmFGP_lWb-OP4yjcUQjKLgdQiP7mI8mm41kRTEQ&amp;oe=6901546A', 'profileId': 'pfbid02Sk1TprYiHuosvRDkAw8g7SfQ6EXA9mARFNE19zK66ZQEWp1b52pjZ11cnFCaFnBKl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid0uw1CRqTbDf1SfaeQ1y84rC7n8QykAp3tydnWw4115eEQ7bLY2NfUP8msMW4hLExhl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwHFyR0X&amp;_nc_oc=Adk-JU-lzVXmZPlUcduBLwuaEBtnsWeY0HTD9Gye_KM8aZTHAiygtDYQzN1GDtAvKss&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Afe0t9YY4nxzdEZTrognL7Qedu2hkJP2cJnEiolVnRYGxw&amp;oe=6902AC5F', 'profileId': 'pfbid0uw1CRqTbDf1SfaeQ1y84rC7n8QykAp3tydnWw4115eEQ7bLY2NfUP8msMW4hLExhl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Popolopolo</t>
+          <t>Es q no falta el ignorante</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45953.43538194444</v>
+        <v>45947.77100694444</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45953</v>
+        <v>45947</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10:26:57</t>
+          <t>18:30:15</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2757,17 +2757,17 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nWAoq5Paxpko7LHzbVSEZdc2wqnR4KwqTw7h4Ytfr43b4PSXZayq7M8tCzZLriiil?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=09O5aDG1DkAQ7kNvwFTYsaK&amp;_nc_oc=AdlkS742tyVXQy7fdXCZRSTee7VpsuSRRvZY4cLxSywoxtYqlfHNxmofy3Cc-wQJFOE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=38buDfWwr-GXEFEjq-fV4A&amp;oh=00_AfeanTdEIqk7_apR3eARRmCApE_1eenUs4cQGd7V7n2tmA&amp;oe=69014ECC', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VvC3Jcv3AywQ7kNvwF_XgNM&amp;_nc_oc=AdmR_h40LOI59EmRG10lYVaCnmb3vlTeHg2lMx-UBx7vjUd_TGSq2cFm44_38WZ5NKs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfetBdOmJH9N2ST0tcoEB8zG6E6kdEZxuEvSGM2o-8qFpw&amp;oe=6902A5EA', 'profileId': 'pfbid0NiQkM3M9cwWGdczfeqi65JNMjsAuRTgR9H5nwiRfAa9CfLLFwRLrJ2NxwAeWz3tdl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2777,16 +2777,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Popolopolo</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45953.43538194444</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10:26:57</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2794,20 +2808,16 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rMcX1kKQp8uHLRo6ptm5W24dFvTvibiE2dN4r3dB47HtPgMYTwK6vYCXajzG1DtRl?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y3E4-oEb0-kQ7kNvwH0OCz5&amp;_nc_oc=Admsl8PhVW3KubtYsFSLZXcwsLM6zF1kCNzXw86qxa4EU3eDCYCKf375MQksQQzRoO4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=g2YlJbWtT8OOLPhHmL0bbA&amp;oh=00_Afcq1Q0mDbkO-_yCXiESJP0RmaszvbwuLkDlGFn5qAvNXg&amp;oe=6902A04C', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2821,7 +2831,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2845,17 +2855,17 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2865,7 +2875,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2882,20 +2892,24 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2905,26 +2919,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>okis</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>45946.71511574074</v>
-      </c>
-      <c r="H54" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>17:09:46</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>0</v>
       </c>
@@ -2934,20 +2936,16 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ce657a2&amp;x-expires=1761400800&amp;x-signature=JeNSNHIHO60GtK7KeGMr0E4JpnM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2961,24 +2959,24 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>tremendo waffle jummm</t>
+          <t>okis</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45952.22988425926</v>
+        <v>45946.71511574074</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>05:31:02</t>
+          <t>17:09:46</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2997,7 +2995,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7adfe24f&amp;x-expires=1761400800&amp;x-signature=MQI2s983HzTReISuJIWBlzy%2Fxqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8c09e37&amp;x-expires=1761483600&amp;x-signature=JzVCQ7HtdDyIBKzSHZOdf%2Fb%2FuJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3051,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17a89788&amp;x-expires=1761400800&amp;x-signature=tMBgTARvg1KwbRhY8KfrLMAVXGg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad44bbe0&amp;x-expires=1761483600&amp;x-signature=ARlWq9jE14CoZ%2BeffxrE30EY%2FUE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3079,18 +3077,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+          <t>tremendo waffle jummm</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45952.14332175926</v>
+        <v>45952.22988425926</v>
       </c>
       <c r="H57" s="3" t="n">
         <v>45952</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>03:26:23</t>
+          <t>05:31:02</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3109,7 +3107,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef7cd386&amp;x-expires=1761400800&amp;x-signature=OcShCuN8NZPSjCBIwRwVMunXD50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c68f4a6f&amp;x-expires=1761483600&amp;x-signature=W6y0ATvmtbZ7XkJC0iDxaVNxdbk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3135,37 +3133,93 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
+          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45952.14332175926</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>03:26:23</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f9d99b38&amp;x-expires=1761483600&amp;x-signature=bR3XbmtzcHJjA5voAcQdDT2uu%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>43</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Eso te engorda...</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G59" s="2" t="n">
         <v>45939.24972222222</v>
       </c>
-      <c r="H58" s="3" t="n">
+      <c r="H59" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>05:59:36</t>
         </is>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=241f4f8c&amp;x-expires=1761400800&amp;x-signature=6RWbXYjGZVo0M1jrmsbkbbyCnkQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3c320ef&amp;x-expires=1761483600&amp;x-signature=SVESCDHOVYDrwWN4hR1V7SQ2660%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3906,11 +3960,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>0000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +1611,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036bZzbm21uxhJDXrCePp6TLvjU8wsd6hRuRX9mWDvKz8g7qTng2Hgj6zEsKAcWVN9l?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dw0SucVoKyYQ7kNvwG_t5Rv&amp;_nc_oc=Admxg7hk3MS_LM4clCB9DFL76yqhcl0C5k9MrPOBCOPOoQIWeZoRLqdxhuy7uI70QAE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=YrixVntTs3SaZL9FNOmPcA&amp;oh=00_AfdPduiToAbkDD2gflY8zlRIoWGdM8MEmyikDm0LQCsRqA&amp;oe=6902895A', 'profileId': 'pfbid02ZmuhUHm9RwvQBCXjBoqGdhoKsiToY39fHTz3iP3i1AqTacGVo74aCKkSjYN974Bpl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0233vogbPf4i295DTFzeLRi3nmPkCu1YuaUeQdMDcAJQBaFudJ4tYRyYd12DRbNAKyl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9fzlWvKIOiwQ7kNvwF0r0Hz&amp;_nc_oc=AdmuSnAS31ArAurfO4f1Ko83Ycnrxi7BqsmZi08Mc6NgUQ4QXQgEnKrlHKE5DPBJJMM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mSUqQ90uOTYWOWfUNW2wew&amp;oh=00_Aff3Sgu55SHzpYonCv53T4QBBPvlhnieqwgtl6HSRHq9Pw&amp;oe=6903DADA', 'profileId': 'pfbid0WEGWZ88naq5bm8ak7787nd65keYYaNT5UA6Cjz7QJVkeyuAxMMGmkcBPHxKPLKMil', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02KvZQ8EHtWPRL9HCdzfuMtJUPA3VfsthM6V2U2MdWjq1YK65thwLw6UX6p7oikLXXl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=PJkFVie71F8Q7kNvwE3eot8&amp;_nc_oc=Adl0mH-7IzYMQERHappcXwuM-hezmE5_qyJZo7IQAbFnRnRQh-ZPUF-6ZSf07KhXZyg&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=K99aBh3gCG1jIcOPKfNH4Q&amp;oh=00_Afcj6bP-7IIugnq93yanN5J6u8o7iqY6zU2G-nLOiD69_Q&amp;oe=69029330', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwHxPyUt&amp;_nc_oc=AdnqkzhP6DawSVTrdIse6-a9RWjlFeIper61ze5rYMFkqctZOZ99QJQqp-82aWO4FJs&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=K99aBh3gCG1jIcOPKfNH4Q&amp;oh=00_AfcR2VIMFtLTxosRpnHpQSEh4lgRXMOWooU1mOTc_qulsg&amp;oe=6902906B', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0GNvDD4fXfAqzGGCUdiwHNTzqPdin7SWoWDCxvyG2UGs2fSdfnkEqidNcuhij3Fwfl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fmli2-1.fna.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=PJkFVie71F8Q7kNvwHDBJlx&amp;_nc_oc=AdmOhdxkOOFwfZW3z_-Wl-wlX_6QQJWSOHI4t846LZMCIZqcnmhBP7uEOXzJN-u8EIU&amp;_nc_zt=26&amp;_nc_ht=scontent.fmli2-1.fna&amp;_nc_gid=VUJ2FM70MzLGFu38T8EJFA&amp;oh=00_Afett6zDRPVb6Up8SXIrOWKlFuKhwrvtATHBDbhDZQAr1A&amp;oe=6903E4B0', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent.fmli2-1.fna.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwF0T5jd&amp;_nc_oc=AdlEDL7_U9ggm1uFXbIfbDzHrCj6e1BDOQ07XnPf4BXFW2wxAuQxyez2JHSsaOi4FZs&amp;_nc_zt=24&amp;_nc_ht=scontent.fmli2-1.fna&amp;_nc_gid=VUJ2FM70MzLGFu38T8EJFA&amp;oh=00_AfdnJKnNOB45AtGHcW8kUgOxYHWCWFZqBZExMSH4_kuCDw&amp;oe=6903E1EB', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=24838188082496880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzI0ODM4MTg4MDgyNDk2ODgw', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yNDgzODE4ODA4MjQ5Njg4MA==', 'date': '2025-10-25T04:08:21.000Z', 'text': 'Me encanta el yogurt Griego', 'profileUrl': 'https://www.facebook.com/manuel.monagas.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/238794322_109502034773246_3873345908547721675_n.jpg?stp=c276.0.1333.1333a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZdPTkTv3ZIEQ7kNvwE_uDeK&amp;_nc_oc=Adn9sqxuhmu09SEkx47cB7HL9sCYqz5TU2nVTmPL9svR1x2VhKMzdbbF84GI89zKrd0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_Afe6tcgDl16tIwR1WHC4K60_kQs6Lw6abtvNbCybKGZM8A&amp;oe=6902ADF0', 'profileId': 'pfbid02bwif2XaR5Av89vUEW6n8ptCuhqwZ5di9UrErmP9hXtcaKUYErXXURwEGzFN96Gxpl', 'profileName': 'Manuel Monagas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=24838188082496880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzI0ODM4MTg4MDgyNDk2ODgw', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yNDgzODE4ODA4MjQ5Njg4MA==', 'date': '2025-10-25T04:08:21.000Z', 'text': 'Me encanta el yogurt Griego', 'profileUrl': 'https://www.facebook.com/manuel.monagas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/238794322_109502034773246_3873345908547721675_n.jpg?stp=c276.0.1333.1333a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=E3ZO0Le1zUoQ7kNvwFlFtoY&amp;_nc_oc=AdlU1vpvuPfWK6i2Lf5Mu6HaSTqWXvk5sQld-0mETK5odYFAXI-qj-nWRI5KS6dS2B4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfcSDkQ0VOf4XXrKj_mWIo9-Oxn8zvXo8bUljMZ0C_DnOA&amp;oe=6903FF70', 'profileId': 'pfbid0Xv7wYiNrQH8YYytN3eE82otF6ZBZwkyNtfeuB7vYzsk7cxxDCeff7EUAW8pvSAPZl', 'profileName': 'Manuel Monagas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=R3I5w2fSOkMQ7kNvwEef8yi&amp;_nc_oc=Adl7G1vSjidWSCmFlE-C3uDOB7nxYNdFifvc-4eUhMbYLn1kRdrpfTaKTNySpOy2xPE&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_AfcSUX6g22riWx3o3jcRQvxD2BsgyBgnRRWumE4T318P6A&amp;oe=69028CB9', 'profileId': 'pfbid0wiyNJ1c8sLTFHJ9aXgimsVGtCrhzKQYMLUSVUgsy637vBSm4Qs7x7rDiAR7DRzRcl', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=R3I5w2fSOkMQ7kNvwHXBgjB&amp;_nc_oc=Adk4WKzYG8dStgAA1QZNWE9ODsDG9gf0JigMumkf4aa_UAXE5P_UxrpO_V4Os7gW860&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfcLSbwfIYLbP3Echyx_5__OADP6gYxM18gp5rqp0cKAIA&amp;oe=6903DE39', 'profileId': 'pfbid031aR5UgXximtfuzxxDG1oAJDm7MFCnKE6PkaqG1hULZktfrANNMhG3MLHHtmKFnhal', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=VSqmsX6lGzoQ7kNvwEG8b39&amp;_nc_oc=AdkoUJUGBWWutbjXXtSovGmhMjlJAl3IoCjieZnlb2ikJlSoGaTyo3fzHgedTDUErs4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdpdSPAUv0omagxv76Gr11gCb23mWVzFQZ8WxsSF6RE2Q&amp;oe=6924557A', 'profileId': 'pfbid0MVeArUe6CLJhZWUBSemSuqBS1U9vdkxcJ9sVgGBCNvcPQ8zPvN8pBueSWiR7koCal', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=owXgrBh0NC4Q7kNvwHkLIBG&amp;_nc_oc=Adlw0RWjs65gtpYTT88wn8wJMvXvucyBjYNewN37fuEkxAjSGjwdYgNFwk61RhytGMY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;oh=00_AffW0vqYFCkVaY_POPsBpxreUBXW7fbKqcQa3JdPqizsPg&amp;oe=6925A6FA', 'profileId': 'pfbid02RM5t39Zv3tZ3W7xXDasRggVMYsbbjREDojk8KCxdNrK2fL44WdmPDumF25F7WShZl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
@@ -2063,16 +2063,20 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="n">
-        <v>45942.01982638889</v>
+        <v>45956.25357638889</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45942</v>
+        <v>45956</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>00:28:33</t>
+          <t>06:05:09</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2089,17 +2093,17 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0up89K4unjWRHsn8cx3ynnUuHmuEczD6hb6hgcWXzqj7WMy4xrsg4fbFUqDPe6NmZl?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=uRPx6dL8P_AQ7kNvwE-eFKO&amp;_nc_oc=AdnzFyUjQIYj1y8EdOMBZfPm2NMOZ7T_17cFCKXqUfrHGwUDW85qsxrKFTVQPDN37Ro&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_Afcc7KkgUSMghyXJVhFiz7G5fXHEaELdOB8Fx7403NWgkQ&amp;oe=69029D3A', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TY9zEuhk7hMQ7kNvwGCHVnM&amp;_nc_oc=AdnaEeZJ4HBvgm-9Qso3M-rj-SuhZbtNiB4qz_ASdu2BoHbmyny_NghiG6m8CP5O5vk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=Z6aPurjP6wtdwjSuv5WSjA&amp;oh=00_AfeZ7CW8utvgI4Q8HQfUcWUpy8xZb27g0ruv8N6-g3AmhQ&amp;oe=6902A1EA', 'profileId': 'pfbid036S4trtiXJn5LF7UDMXSjF27a9hWjFx2JBVwFJ7zEfj1qs2ZKkcLaD5okxFPc9pZSl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=2061400018004298', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzIwNjE0MDAwMTgwMDQyOTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yMDYxNDAwMDE4MDA0Mjk4', 'date': '2025-10-26T06:05:09.000Z', 'text': 'J', 'profileUrl': 'https://www.facebook.com/gloria.torres.17854', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/437913641_2087568294945321_1303339380599801076_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7PkhNvtfCGMQ7kNvwHoHTmw&amp;_nc_oc=AdmseGVFuJkk99ZDo23379Q6VCF4IFT4Z7Ln_PlqGXJDhBillktT5wEVa1wSOjCeOO0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfdovSowkamJTPFAMMdbro5uDhY9DdqJrc--xWPzNbjovQ&amp;oe=690410BB', 'profileId': '100010765127458', 'profileName': 'Gloria Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2109,16 +2113,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0</v>
+      <c r="G38" s="2" t="n">
+        <v>45942.01982638889</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>00:28:33</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2126,24 +2140,20 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=uRPx6dL8P_AQ7kNvwFGf0ez&amp;_nc_oc=Adn7BpPg0UwBu-EHDLouWTWa5QIChtoCIsxC1h6uA6RXTVCukJZ7zf6yhsDRuK8ej0s&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_Afd5h_NUB9c6M-Z2AZ93q7R57Uqo32uMYwlMH9qt_vuDiQ&amp;oe=6903EEBA', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uq4iWHNAB-8Q7kNvwF632uB&amp;_nc_oc=AdlVU3di1NedXhCSKa4c-baiS_sKlcRbf8_0wCPU7tyOkC9W3_0d1W0FwuXgPMWWLVY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_Afcir9qxTNAi73A13WHk1qaPGUO_jPb0Bc1i6uku0XDgzg&amp;oe=6903F36A', 'profileId': 'pfbid022QUBP5Wxdn4Z1hcZNDST3pk9eCz6DW4QXJH1MRMA3s6W38ArtxokKVpZFcfeosSXl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2153,7 +2163,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
+          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2170,20 +2180,24 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2193,7 +2207,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2210,24 +2224,20 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2237,30 +2247,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Amén 🙏🙏 Amén</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>45942.77177083334</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>18:31:21</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2268,10 +2264,14 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFK3Lvw&amp;_nc_oc=AdnA6-D01yYm1H-4V4VyTYMpMn6aoV0YB6rX_l-mIajVe2ioLCRhXdD381bZFHYefIg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfdHsQ09vDyyWX32wo6GSuBlRzH_yA6-Hj2dGR22q9JsqA&amp;oe=69244E50', 'profileId': 'pfbid0J1bx6n28ZATzfvgLnHJwyL87kwxpJe6YxRkXVm7CVsYu1Hmk7URFDoQwtV4pFwVsl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -2297,18 +2297,18 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Amén y amén 🙌</t>
+          <t>Amén 🙏🙏 Amén</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45940.38982638889</v>
+        <v>45942.77177083334</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>09:21:21</t>
+          <t>18:31:21</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2325,7 +2325,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwHJVuR9&amp;_nc_oc=AdmrpXQYRW0PZ0ukY3iUFw5QLGPqrF6U8U_9Owoy5-jOj9dzCrAbCVJ3U_Zjaoyf1uU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffgROx71uvKtSXuavb0cBqVmUXTaVvAbp5s8gPpye4E9Q&amp;oe=6902C127', 'profileId': 'pfbid0RLyc8AiJZ1WLERFuxhbhfdd2gprimHahQmpCmf7FwZ8pn4HgsFvAkYC7j2XrnqT7l', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFRSdLk&amp;_nc_oc=AdkK30L90IrIihyxOyLMJU3HngVws_Jrk9HQN_Nhf9VyZ0_P-gYr1UF54nlSSpTD2xU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Aff8ZETT7SBh96F7e2m2yg660-ko85HygYXZYQIi9JX_9Q&amp;oe=69259FD0', 'profileId': 'pfbid02Ms3fHSwxQUPNDSgHGk6BHmdTapG8aC14K8zvcB4F8K9i8BM8dM8y3WmwZ3mZpwayl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2351,23 +2351,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A como</t>
+          <t>Amén y amén 🙌</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45950.43540509259</v>
+        <v>45940.38982638889</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45950</v>
+        <v>45940</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10:26:59</t>
+          <t>09:21:21</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2379,7 +2379,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=32JQ-K7__gcQ7kNvwFY3Vdt&amp;_nc_oc=Adlhnpr1mSnybgYb6fADxtGZcpwKyeObVuH9y0u9_1dKogJzpETnFeiGY1qDurajoIc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffOCpowwyaUWYK4II3qFHqIoYQzTissiPCwAy89MFu14g&amp;oe=6902B35C', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwEE9syv&amp;_nc_oc=AdmpjycCFgIwtEoAbJAEbbWMIXawu-plmFJ-1bkXi7HuzKdStwmys368ujlejVoWaQI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AfcPvR-vyDTD1yzrkHrjODPxzuO1ewMQGIq1MEY4xPYkbA&amp;oe=690412A7', 'profileId': 'pfbid02VCRKJqe8QUczsCxDZVcJE3sosmFPjawxa8AZRYf99hwKQnmR8orLzkjV1Uv4ZmRtl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2405,18 +2405,18 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bajen el precio</t>
+          <t>A como</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45953.43668981481</v>
+        <v>45950.43540509259</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:28:50</t>
+          <t>10:26:59</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=goHOGjCSLXEQ7kNvwFCgSOF&amp;_nc_oc=AdmoLdn9mUNgLT-skTJbYG3J6BSEHJdzTnasGatKFcXvOc-5haCzdTggJ4vo9vh2IRo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfeRX1D8f7-CZpFtJHvrPserGqp3zfzdew5hMwUo0SR1QQ&amp;oe=6902B65E', 'profileId': 'pfbid02r2B4JucdQSxk4oSqBZiHc1dhsib8GbACM9Qttq4ELCcPTV8B3ZTvLpeuQARyzKXBl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JWCzq16vYc8Q7kNvwGF0CKJ&amp;_nc_oc=AdnCvEmr3-J1eeO1meTLxI8fTVFgi_UNrv1rnrJprpGmOeoLj-HBUPEuY_UJBF6Vbps&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AfcuhOoDLDx5GyQkyia9JHldC9e94nEvKmlDUwUjqyZD8g&amp;oe=690404DC', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2459,23 +2459,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
+          <t>A vaina Kelly jajajajaja</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45937.99167824074</v>
+        <v>45955.83497685185</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45937</v>
+        <v>45955</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>23:48:01</t>
+          <t>20:02:22</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2487,7 +2487,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yYP1u8Z6pfMQ7kNvwF22UDH&amp;_nc_oc=Adk5NhK6RA4Q5aCeB3d2WAgANWlO2P9kig_sdyaxdVciSVI_w8hklRZG4X4h8GVUH9k&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Afdo0LsBF6v-clQHj1RFf_-3V3O26vOuoxkjE_f-F_siqQ&amp;oe=69029FF2', 'profileId': 'pfbid08xdWxZ1Vt8LB1sDdVPkkZfbNkotBoSEhG7yRnkaumzHGPXkXxkkUirUZRw2EoEPUl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=2568260083533663', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzI1NjgyNjAwODM1MzM2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8yNTY4MjYwMDgzNTMzNjYz', 'date': '2025-10-25T20:02:22.000Z', 'text': 'A vaina Kelly jajajajaja', 'profileUrl': 'https://www.facebook.com/vivianamaria.cardonalopez.9', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/430007433_3862963763947982_1508341963538184612_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G9HPtFYJES8Q7kNvwH3IY_u&amp;_nc_oc=AdnrVr5gGKR7DhoXCuHHG79qm6PZUqlhsLMPRCqnaPC2OltI4LcwZ1pSg13rSf3iv80&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffcC--Jxhxm5mc_jP-xc2G2z8SauS-rI9CMZfzcQV_5OA&amp;oe=6903F476', 'profileId': 'pfbid02vCQJofFrNPrRdWXA4v5C61xhBcJZqk652Le5MHuYejFqAPG7sEce67zmp4VGzf1ql', 'profileName': 'Viviana Maria Cardona Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2513,23 +2513,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45943.06457175926</v>
+        <v>45953.43668981481</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45943</v>
+        <v>45953</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>01:32:59</t>
+          <t>10:28:50</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2541,7 +2541,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwG-45yR&amp;_nc_oc=AdlCPMeX0x2Bt7L5eOz0asO8sMCVtDMigD9WTWNywUHzBekHc1OBFEZE1AgKuD3yrVA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfeyYxOE6FmMzhxNCug6DygYR-ew7MvPngRDTOcGTWWsNQ&amp;oe=6902B715', 'profileId': 'pfbid02UvaqNDZhxDXCqHdvWWsg7jGDSwbt8SAJwbf2TRWU5yFdV31rr9xLHoSv6t1B5Td3l', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=goHOGjCSLXEQ7kNvwHtIX_F&amp;_nc_oc=AdkUOdegiY-tdQVJxpAHWzEGupgOgIhYynvrLS0CqYy702dKl-4qXOkOlyMo0v2uZtA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afdw_Udchw8UcWj2M3zUPnqsEEvaAg0IljiajtWo0gPnag&amp;oe=690407DE', 'profileId': 'pfbid0nUXsPjzGZE3ndGyKpCAXLjhSHXNQ6a2HRfTHjsZX5Adb2dqt3yvqEYnmfa856WJWl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2567,18 +2567,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Valentina WHAAAT, si es vdd</t>
+          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45935.20770833334</v>
+        <v>45937.99167824074</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45935</v>
+        <v>45937</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>04:59:06</t>
+          <t>23:48:01</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2595,7 +2595,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwHBUirp&amp;_nc_oc=Adk6eyQQi3WURdeZinerJT6gW4WA911yah1Ljz9-tQQHTgW8_kUt13zueRVgeLL2eD8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Aff_JGtIn-uS1K_Yq1ZmCaMbYy99bq18vjg2J0XVakQnXw&amp;oe=6902BE7C', 'profileId': 'pfbid0JXdrNWa9ra6ntK2fg2uhr5i5QF7nNC6HD6YwZtZ96dEgVy2ZfgoKrppuUAQdjTUil', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yYP1u8Z6pfMQ7kNvwEtsQ_P&amp;_nc_oc=AdlFYaTjpWs63y6EGrNkzqxo7BAy_mAIn4PuQm16CNnvFKzAVwsuEKV4weWfQP6iIww&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afctu2eevigzAuZ31VeenmtuwWFhgDoEkN90_zSj2xpSgA&amp;oe=6903F172', 'profileId': 'pfbid02Cp5E9DwKjVHMKhBMrbXF3dXYnjCYSg815qHNogdFdpaQeo5CNDfrG1cXX5ZNmycwl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2621,23 +2621,23 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pero posee aspartame o sacarosa?</t>
+          <t>Precio</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45943.27204861111</v>
+        <v>45943.06457175926</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45943</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>06:31:45</t>
+          <t>01:32:59</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2649,7 +2649,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwH7ys88&amp;_nc_oc=AdlaIZSHD6XxXzG8OVChXfObCuVaKY-xjryosmsjRVULUF6ghuoa3u9ViUTTeYXnliI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AffQAmrpZV50eVCu5OsahmTLsit02C-q-Y7bJkUF1U9NKw&amp;oe=69029107', 'profileId': 'pfbid02ZYNEZvXzUZNSmf9uBN815WK1Tx4uV1EWUPmJnPaQ8WDrzKXnUMXdYD8YtNm3AxqKl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwHpHYCX&amp;_nc_oc=AdmKZFbNi7Lpkktqb0IKoR0NRbuIf7Z3qfXJzMGaire7lAZ0CAMaawzFuvV9h7H_cDw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffZ2_FjnZXuHHq8iQ4BeQiHSCNB2IeOnCGG-ueNt2rmzw&amp;oe=69040895', 'profileId': 'pfbid0RNweT3wM74R1UJf2TEmZC7Vjurrw4Urx1zCEwThoNpezsQqwGQSN6Rs9ipn1RjKjl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2675,23 +2675,23 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Valentina WHAAAT, si es vdd</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45945.38604166666</v>
+        <v>45935.20770833334</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45945</v>
+        <v>45935</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>04:59:06</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2703,7 +2703,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid0uw1CRqTbDf1SfaeQ1y84rC7n8QykAp3tydnWw4115eEQ7bLY2NfUP8msMW4hLExhl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwHFyR0X&amp;_nc_oc=Adk-JU-lzVXmZPlUcduBLwuaEBtnsWeY0HTD9Gye_KM8aZTHAiygtDYQzN1GDtAvKss&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_Afe0t9YY4nxzdEZTrognL7Qedu2hkJP2cJnEiolVnRYGxw&amp;oe=6902AC5F', 'profileId': 'pfbid0uw1CRqTbDf1SfaeQ1y84rC7n8QykAp3tydnWw4115eEQ7bLY2NfUP8msMW4hLExhl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwHKWXCe&amp;_nc_oc=AdmOFQtm6wxwwSDMi_7fC2cVA1GUrYrbik8j23Ldt_tm7YKL8lcsQ9PgkxpovzGCqSI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Aff1t-rlXDPDkn51AcVPjWyfpZ3-3DnxHM5MCJs35rrYZw&amp;oe=69040FFC', 'profileId': 'pfbid02NP5ZZBVyi33RroX9Smg2xiHLktRRmzp11f9LSvVwMPGamXfA5hVKmhJEuUCsaE3Vl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
@@ -2729,18 +2729,18 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Es q no falta el ignorante</t>
+          <t>Pero posee aspartame o sacarosa?</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45947.77100694444</v>
+        <v>45943.27204861111</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45947</v>
+        <v>45943</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>18:30:15</t>
+          <t>06:31:45</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2757,13 +2757,13 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VvC3Jcv3AywQ7kNvwF_XgNM&amp;_nc_oc=AdmR_h40LOI59EmRG10lYVaCnmb3vlTeHg2lMx-UBx7vjUd_TGSq2cFm44_38WZ5NKs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=rtkfBmWetyKO4y0xymmPIg&amp;oh=00_AfetBdOmJH9N2ST0tcoEB8zG6E6kdEZxuEvSGM2o-8qFpw&amp;oe=6902A5EA', 'profileId': 'pfbid0NiQkM3M9cwWGdczfeqi65JNMjsAuRTgR9H5nwiRfAa9CfLLFwRLrJ2NxwAeWz3tdl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwE2NXZ2&amp;_nc_oc=AdmIvoDT72N7P0d_EYIsIg-yMHVo-4irqePdeHaa3IepF2FPkXVgIVJaJY3415H5hRw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afdtz4yPIzD0M1PEEp_SCWZdjqiW0b3EZs63XhNXsQCNag&amp;oe=6903E287', 'profileId': 'pfbid0VWmX67LRodndnPDBP3EoeQeW3buyMX1iZ1XiCCkMMYbWoa8sb3pD8eTJEXsWutmQl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2777,24 +2777,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Popolopolo</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45953.43538194444</v>
+        <v>45945.38604166666</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45953</v>
+        <v>45945</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10:26:57</t>
+          <t>09:15:54</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2811,17 +2811,17 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rMcX1kKQp8uHLRo6ptm5W24dFvTvibiE2dN4r3dB47HtPgMYTwK6vYCXajzG1DtRl?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y3E4-oEb0-kQ7kNvwH0OCz5&amp;_nc_oc=Admsl8PhVW3KubtYsFSLZXcwsLM6zF1kCNzXw86qxa4EU3eDCYCKf375MQksQQzRoO4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=g2YlJbWtT8OOLPhHmL0bbA&amp;oh=00_Afcq1Q0mDbkO-_yCXiESJP0RmaszvbwuLkDlGFn5qAvNXg&amp;oe=6902A04C', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid02yJVP3rpDFL3GGsxpDVUKXfkgqs1GwLBwcS8oW6QCgCkXGTNKTELm4sauPh5Wyn5Hl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwHTV8L9&amp;_nc_oc=Adm3hBV4d6LKmsd_Ru4bK1M_FmysdRKSf2kQ3AzJ4LJLOzMxT3IGyYxYArJGKTfld_k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffFIHrwSzeElGAGJYwVvRXc92Qq-cQvE6BnYVMLW8ZpWw&amp;oe=6903FDDF', 'profileId': 'pfbid02yJVP3rpDFL3GGsxpDVUKXfkgqs1GwLBwcS8oW6QCgCkXGTNKTELm4sauPh5Wyn5Hl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2831,16 +2831,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Es q no falta el ignorante</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45947.77100694444</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>18:30:15</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2848,24 +2862,20 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VvC3Jcv3AywQ7kNvwGHTi3F&amp;_nc_oc=Adk2givE7K6LM8EPh4l1brT3KWBIsGaAiFyMm8oTK5V4FrvK2n7E24V0Zo9-5aHcLSwuB8HLRy0uyjU0WZMljXkJ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=eLhYTcBSJj4yB56xlcwjBA&amp;oh=00_Aff2k8CRlPL79IXVeIPno3r2dKB2TNk11u6ae-APxv0HRg&amp;oe=6903F76A', 'profileId': 'pfbid02SZrTXiGyUTgcNcAtswgfySayh1GGbf25S3rvZYeysCngKjQEErGeTxGstNe3UFZvl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2875,16 +2885,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Popolopolo</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45953.43538194444</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10:26:57</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2892,24 +2916,20 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nL1oXw7r9NUHHVQxjVUQDHuWLFnJfSM4YMqZcuULtHm5JfcmHuhBkHR68jLgFFo7l?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y3E4-oEb0-kQ7kNvwGrx6ku&amp;_nc_oc=Adl2W8Im5zL7quUGY3GM3pczJjsRTSIcL2W5g9iPFfIjQhWKWcXHIyJnv7fexSCc0iM&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=DPoxfuDr2jhsnCqtYlOJ0A&amp;oh=00_AffgHbgXet8k-BSlmkHDfSEfjU8l-BCpWJ9EHdE1y2FIiw&amp;oe=6903F1CC', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2919,7 +2939,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2936,20 +2956,24 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2959,26 +2983,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>okis</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45946.71511574074</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>17:09:46</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>0</v>
       </c>
@@ -2990,22 +3002,22 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@</t>
+          <t>https://instagram.com/</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8c09e37&amp;x-expires=1761483600&amp;x-signature=JzVCQ7HtdDyIBKzSHZOdf%2Fb%2FuJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3015,28 +3027,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Q guaflesote 😏</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>45946.27930555555</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>06:42:12</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3044,20 +3044,16 @@
       <c r="L56" t="b">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad44bbe0&amp;x-expires=1761483600&amp;x-signature=ARlWq9jE14CoZ%2BeffxrE30EY%2FUE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3071,24 +3067,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>tremendo waffle jummm</t>
+          <t>okis</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45952.22988425926</v>
+        <v>45946.71511574074</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>05:31:02</t>
+          <t>17:09:46</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3107,7 +3103,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c68f4a6f&amp;x-expires=1761483600&amp;x-signature=W6y0ATvmtbZ7XkJC0iDxaVNxdbk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c0bf6d9&amp;x-expires=1761570000&amp;x-signature=rYA2iAI5e66hzN8K%2FNUmPNoOR4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3129,22 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+          <t>Q guaflesote 😏</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45952.14332175926</v>
+        <v>45946.27930555555</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>03:26:23</t>
+          <t>06:42:12</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3163,7 +3159,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f9d99b38&amp;x-expires=1761483600&amp;x-signature=bR3XbmtzcHJjA5voAcQdDT2uu%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=982b63eb&amp;x-expires=1761573600&amp;x-signature=9eKMwxzzwLDTQr6H1017KZ%2FpqTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3215,119 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3c320ef&amp;x-expires=1761483600&amp;x-signature=SVESCDHOVYDrwWN4hR1V7SQ2660%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=005ba84e&amp;x-expires=1761573600&amp;x-signature=fgb2SpLIA3HJwmCJNs3caLGlD1w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>43</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>tremendo waffle jummm</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45952.22988425926</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>05:31:02</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d90fe9a2&amp;x-expires=1761573600&amp;x-signature=abtOtonU56Dk9EeKrcoMaQ5el1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>43</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45952.14332175926</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>03:26:23</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8df82761&amp;x-expires=1761573600&amp;x-signature=ze1NBvYr7d81ZCsDzzUNJqLtzFM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3960,11 +4068,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0000</t>
+          <t>00000</t>
         </is>
       </c>
     </row>
@@ -4046,11 +4154,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1100212000</t>
+          <t>11000212000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0233vogbPf4i295DTFzeLRi3nmPkCu1YuaUeQdMDcAJQBaFudJ4tYRyYd12DRbNAKyl?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9fzlWvKIOiwQ7kNvwF0r0Hz&amp;_nc_oc=AdmuSnAS31ArAurfO4f1Ko83Ycnrxi7BqsmZi08Mc6NgUQ4QXQgEnKrlHKE5DPBJJMM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mSUqQ90uOTYWOWfUNW2wew&amp;oh=00_Aff3Sgu55SHzpYonCv53T4QBBPvlhnieqwgtl6HSRHq9Pw&amp;oe=6903DADA', 'profileId': 'pfbid0WEGWZ88naq5bm8ak7787nd65keYYaNT5UA6Cjz7QJVkeyuAxMMGmkcBPHxKPLKMil', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036uNWsGKUv3kFshBRyDiUVHadC74D89FCszZBi1eFCHNjx2TMStG5kgrupXRDztnul?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9fzlWvKIOiwQ7kNvwHbVPN5&amp;_nc_oc=AdkkjEQ3bR6cj-tvB36G6kLciVqJR_ONeTrLzbEx94js80Ibl-3z2qJj-wh2K_LycTc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=XqDaewSgdMCwu-upN1UwDg&amp;oh=00_Affs_8x2t17N7xWgSpSMr1l_FvEx592rvWwhiuG4zd6Ldw&amp;oe=69052C5A', 'profileId': 'pfbid02a5iDjo4cSJyuLBH6kw1r7AtvqK1yjRBi2vEggqjkmX5kUwuVp2gE5rCwKeEj3dJMl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq0ODAGE7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWq0ODAGE7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1740,1594 +1740,6 @@
       <c r="N30" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164945122409/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWrJm4gJFC/</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWrJm4gJFC/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165375122366/</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" s="2" t="n">
-        <v>45953.00730324074</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>45953</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>00:10:31</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0GNvDD4fXfAqzGGCUdiwHNTzqPdin7SWoWDCxvyG2UGs2fSdfnkEqidNcuhij3Fwfl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fmli2-1.fna.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=PJkFVie71F8Q7kNvwHDBJlx&amp;_nc_oc=AdmOhdxkOOFwfZW3z_-Wl-wlX_6QQJWSOHI4t846LZMCIZqcnmhBP7uEOXzJN-u8EIU&amp;_nc_zt=26&amp;_nc_ht=scontent.fmli2-1.fna&amp;_nc_gid=VUJ2FM70MzLGFu38T8EJFA&amp;oh=00_Afett6zDRPVb6Up8SXIrOWKlFuKhwrvtATHBDbhDZQAr1A&amp;oe=6903E4B0', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent.fmli2-1.fna.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=AQw6yjMJ-EEQ7kNvwF0T5jd&amp;_nc_oc=AdlEDL7_U9ggm1uFXbIfbDzHrCj6e1BDOQ07XnPf4BXFW2wxAuQxyez2JHSsaOi4FZs&amp;_nc_zt=24&amp;_nc_ht=scontent.fmli2-1.fna&amp;_nc_gid=VUJ2FM70MzLGFu38T8EJFA&amp;oh=00_AfdnJKnNOB45AtGHcW8kUgOxYHWCWFZqBZExMSH4_kuCDw&amp;oe=6903E1EB', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq_XXAGFG/</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq_XXAGFG/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Me encanta el yogurt Griego</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>45955.17246527778</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>45955</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>04:08:21</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=24838188082496880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzI0ODM4MTg4MDgyNDk2ODgw', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yNDgzODE4ODA4MjQ5Njg4MA==', 'date': '2025-10-25T04:08:21.000Z', 'text': 'Me encanta el yogurt Griego', 'profileUrl': 'https://www.facebook.com/manuel.monagas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/238794322_109502034773246_3873345908547721675_n.jpg?stp=c276.0.1333.1333a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=E3ZO0Le1zUoQ7kNvwFlFtoY&amp;_nc_oc=AdlU1vpvuPfWK6i2Lf5Mu6HaSTqWXvk5sQld-0mETK5odYFAXI-qj-nWRI5KS6dS2B4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfcSDkQ0VOf4XXrKj_mWIo9-Oxn8zvXo8bUljMZ0C_DnOA&amp;oe=6903FF70', 'profileId': 'pfbid0Xv7wYiNrQH8YYytN3eE82otF6ZBZwkyNtfeuB7vYzsk7cxxDCeff7EUAW8pvSAPZl', 'profileName': 'Manuel Monagas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yo</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>45954.17839120371</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>45954</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>04:16:53</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=R3I5w2fSOkMQ7kNvwHXBgjB&amp;_nc_oc=Adk4WKzYG8dStgAA1QZNWE9ODsDG9gf0JigMumkf4aa_UAXE5P_UxrpO_V4Os7gW860&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfcLSbwfIYLbP3Echyx_5__OADP6gYxM18gp5rqp0cKAIA&amp;oe=6903DE39', 'profileId': 'pfbid031aR5UgXximtfuzxxDG1oAJDm7MFCnKE6PkaqG1hULZktfrANNMhG3MLHHtmKFnhal', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>33</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Mejor no me cuido 🤪</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>45949.14236111111</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>45949</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>03:25:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=owXgrBh0NC4Q7kNvwHkLIBG&amp;_nc_oc=Adlw0RWjs65gtpYTT88wn8wJMvXvucyBjYNewN37fuEkxAjSGjwdYgNFwk61RhytGMY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;oh=00_AffW0vqYFCkVaY_POPsBpxreUBXW7fbKqcQa3JdPqizsPg&amp;oe=6925A6FA', 'profileId': 'pfbid02RM5t39Zv3tZ3W7xXDasRggVMYsbbjREDojk8KCxdNrK2fL44WdmPDumF25F7WShZl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>33</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>45956.25357638889</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>45956</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>06:05:09</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=2061400018004298', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzIwNjE0MDAwMTgwMDQyOTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yMDYxNDAwMDE4MDA0Mjk4', 'date': '2025-10-26T06:05:09.000Z', 'text': 'J', 'profileUrl': 'https://www.facebook.com/gloria.torres.17854', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/437913641_2087568294945321_1303339380599801076_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7PkhNvtfCGMQ7kNvwHoHTmw&amp;_nc_oc=AdmseGVFuJkk99ZDo23379Q6VCF4IFT4Z7Ln_PlqGXJDhBillktT5wEVa1wSOjCeOO0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_AfdovSowkamJTPFAMMdbro5uDhY9DdqJrc--xWPzNbjovQ&amp;oe=690410BB', 'profileId': '100010765127458', 'profileName': 'Gloria Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" s="2" t="n">
-        <v>45942.01982638889</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>00:28:33</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02yfZrVjqcaoNdgsU6V6Da69BBR3vhD7XXNjC56ATwHSXuHCmRtyoWR53kfsKAvfoql?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=uRPx6dL8P_AQ7kNvwFGf0ez&amp;_nc_oc=Adn7BpPg0UwBu-EHDLouWTWa5QIChtoCIsxC1h6uA6RXTVCukJZ7zf6yhsDRuK8ej0s&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_Afd5h_NUB9c6M-Z2AZ93q7R57Uqo32uMYwlMH9qt_vuDiQ&amp;oe=6903EEBA', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/485322073_122097556046816715_4926907858351695958_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uq4iWHNAB-8Q7kNvwF632uB&amp;_nc_oc=AdlVU3di1NedXhCSKa4c-baiS_sKlcRbf8_0wCPU7tyOkC9W3_0d1W0FwuXgPMWWLVY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=cZqeVTeLopwojTgiWuaAlA&amp;oh=00_Afcir9qxTNAi73A13WHk1qaPGUO_jPb0Bc1i6uku0XDgzg&amp;oe=6903F36A', 'profileId': 'pfbid022QUBP5Wxdn4Z1hcZNDST3pk9eCz6DW4QXJH1MRMA3s6W38ArtxokKVpZFcfeosSXl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>35</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>37</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Amén 🙏🙏 Amén</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>45942.77177083334</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>18:31:21</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L3SMlOi6KpUQ7kNvwFRSdLk&amp;_nc_oc=AdkK30L90IrIihyxOyLMJU3HngVws_Jrk9HQN_Nhf9VyZ0_P-gYr1UF54nlSSpTD2xU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Aff8ZETT7SBh96F7e2m2yg660-ko85HygYXZYQIi9JX_9Q&amp;oe=69259FD0', 'profileId': 'pfbid02Ms3fHSwxQUPNDSgHGk6BHmdTapG8aC14K8zvcB4F8K9i8BM8dM8y3WmwZ3mZpwayl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>37</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Amén y amén 🙌</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>45940.38982638889</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>09:21:21</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GZHzfwMs_sYQ7kNvwEE9syv&amp;_nc_oc=AdmpjycCFgIwtEoAbJAEbbWMIXawu-plmFJ-1bkXi7HuzKdStwmys368ujlejVoWaQI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AfcPvR-vyDTD1yzrkHrjODPxzuO1ewMQGIq1MEY4xPYkbA&amp;oe=690412A7', 'profileId': 'pfbid02VCRKJqe8QUczsCxDZVcJE3sosmFPjawxa8AZRYf99hwKQnmR8orLzkjV1Uv4ZmRtl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>37</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>A como</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>45950.43540509259</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>45950</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>10:26:59</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JWCzq16vYc8Q7kNvwGF0CKJ&amp;_nc_oc=AdnCvEmr3-J1eeO1meTLxI8fTVFgi_UNrv1rnrJprpGmOeoLj-HBUPEuY_UJBF6Vbps&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AfcuhOoDLDx5GyQkyia9JHldC9e94nEvKmlDUwUjqyZD8g&amp;oe=690404DC', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>37</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>A vaina Kelly jajajajaja</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>45955.83497685185</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>45955</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>20:02:22</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=2568260083533663', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzI1NjgyNjAwODM1MzM2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8yNTY4MjYwMDgzNTMzNjYz', 'date': '2025-10-25T20:02:22.000Z', 'text': 'A vaina Kelly jajajajaja', 'profileUrl': 'https://www.facebook.com/vivianamaria.cardonalopez.9', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/430007433_3862963763947982_1508341963538184612_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G9HPtFYJES8Q7kNvwH3IY_u&amp;_nc_oc=AdnrVr5gGKR7DhoXCuHHG79qm6PZUqlhsLMPRCqnaPC2OltI4LcwZ1pSg13rSf3iv80&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffcC--Jxhxm5mc_jP-xc2G2z8SauS-rI9CMZfzcQV_5OA&amp;oe=6903F476', 'profileId': 'pfbid02vCQJofFrNPrRdWXA4v5C61xhBcJZqk652Le5MHuYejFqAPG7sEce67zmp4VGzf1ql', 'profileName': 'Viviana Maria Cardona Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>37</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bajen el precio</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>45953.43668981481</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>45953</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10:28:50</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=goHOGjCSLXEQ7kNvwHtIX_F&amp;_nc_oc=AdkUOdegiY-tdQVJxpAHWzEGupgOgIhYynvrLS0CqYy702dKl-4qXOkOlyMo0v2uZtA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afdw_Udchw8UcWj2M3zUPnqsEEvaAg0IljiajtWo0gPnag&amp;oe=690407DE', 'profileId': 'pfbid0nUXsPjzGZE3ndGyKpCAXLjhSHXNQ6a2HRfTHjsZX5Adb2dqt3yvqEYnmfa856WJWl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>37</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>45937.99167824074</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>45937</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>23:48:01</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yYP1u8Z6pfMQ7kNvwEtsQ_P&amp;_nc_oc=AdlFYaTjpWs63y6EGrNkzqxo7BAy_mAIn4PuQm16CNnvFKzAVwsuEKV4weWfQP6iIww&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afctu2eevigzAuZ31VeenmtuwWFhgDoEkN90_zSj2xpSgA&amp;oe=6903F172', 'profileId': 'pfbid02Cp5E9DwKjVHMKhBMrbXF3dXYnjCYSg815qHNogdFdpaQeo5CNDfrG1cXX5ZNmycwl', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>37</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>45943.06457175926</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>45943</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>01:32:59</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/556845593_848221331702330_5408909873507388013_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LZvgHKsdUc0Q7kNvwHpHYCX&amp;_nc_oc=AdmKZFbNi7Lpkktqb0IKoR0NRbuIf7Z3qfXJzMGaire7lAZ0CAMaawzFuvV9h7H_cDw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffZ2_FjnZXuHHq8iQ4BeQiHSCNB2IeOnCGG-ueNt2rmzw&amp;oe=69040895', 'profileId': 'pfbid0RNweT3wM74R1UJf2TEmZC7Vjurrw4Urx1zCEwThoNpezsQqwGQSN6Rs9ipn1RjKjl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>37</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Valentina WHAAAT, si es vdd</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>45935.20770833334</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>04:59:06</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fDjpzsbXSYQ7kNvwHKWXCe&amp;_nc_oc=AdmOFQtm6wxwwSDMi_7fC2cVA1GUrYrbik8j23Ldt_tm7YKL8lcsQ9PgkxpovzGCqSI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Aff1t-rlXDPDkn51AcVPjWyfpZ3-3DnxHM5MCJs35rrYZw&amp;oe=69040FFC', 'profileId': 'pfbid02NP5ZZBVyi33RroX9Smg2xiHLktRRmzp11f9LSvVwMPGamXfA5hVKmhJEuUCsaE3Vl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>37</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Pero posee aspartame o sacarosa?</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>45943.27204861111</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>45943</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>06:31:45</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/560351065_2298617193986825_625363858206838671_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDpNa6KAuI0Q7kNvwE2NXZ2&amp;_nc_oc=AdmIvoDT72N7P0d_EYIsIg-yMHVo-4irqePdeHaa3IepF2FPkXVgIVJaJY3415H5hRw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_Afdtz4yPIzD0M1PEEp_SCWZdjqiW0b3EZs63XhNXsQCNag&amp;oe=6903E287', 'profileId': 'pfbid0VWmX67LRodndnPDBP3EoeQeW3buyMX1iZ1XiCCkMMYbWoa8sb3pD8eTJEXsWutmQl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>37</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>45945.38604166666</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>45945</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>09:15:54</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid02yJVP3rpDFL3GGsxpDVUKXfkgqs1GwLBwcS8oW6QCgCkXGTNKTELm4sauPh5Wyn5Hl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T5Ni7RbSYRcQ7kNvwHTV8L9&amp;_nc_oc=Adm3hBV4d6LKmsd_Ru4bK1M_FmysdRKSf2kQ3AzJ4LJLOzMxT3IGyYxYArJGKTfld_k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=pydFE-_KCQ0628vqZAm0ew&amp;oh=00_AffFIHrwSzeElGAGJYwVvRXc92Qq-cQvE6BnYVMLW8ZpWw&amp;oe=6903FDDF', 'profileId': 'pfbid02yJVP3rpDFL3GGsxpDVUKXfkgqs1GwLBwcS8oW6QCgCkXGTNKTELm4sauPh5Wyn5Hl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>37</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Es q no falta el ignorante</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>45947.77100694444</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>45947</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>18:30:15</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VvC3Jcv3AywQ7kNvwGHTi3F&amp;_nc_oc=Adk2givE7K6LM8EPh4l1brT3KWBIsGaAiFyMm8oTK5V4FrvK2n7E24V0Zo9-5aHcLSwuB8HLRy0uyjU0WZMljXkJ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=eLhYTcBSJj4yB56xlcwjBA&amp;oh=00_Aff2k8CRlPL79IXVeIPno3r2dKB2TNk11u6ae-APxv0HRg&amp;oe=6903F76A', 'profileId': 'pfbid02SZrTXiGyUTgcNcAtswgfySayh1GGbf25S3rvZYeysCngKjQEErGeTxGstNe3UFZvl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>38</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Popolopolo</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>45953.43538194444</v>
-      </c>
-      <c r="H53" s="3" t="n">
-        <v>45953</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>10:26:57</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nL1oXw7r9NUHHVQxjVUQDHuWLFnJfSM4YMqZcuULtHm5JfcmHuhBkHR68jLgFFo7l?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y3E4-oEb0-kQ7kNvwGrx6ku&amp;_nc_oc=Adl2W8Im5zL7quUGY3GM3pczJjsRTSIcL2W5g9iPFfIjQhWKWcXHIyJnv7fexSCc0iM&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=DPoxfuDr2jhsnCqtYlOJ0A&amp;oh=00_AffgHbgXet8k-BSlmkHDfSEfjU8l-BCpWJ9EHdE1y2FIiw&amp;oe=6903F1CC', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>39</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>40</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>41</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>42</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>okis</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>45946.71511574074</v>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>17:09:46</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c0bf6d9&amp;x-expires=1761570000&amp;x-signature=rYA2iAI5e66hzN8K%2FNUmPNoOR4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>43</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Q guaflesote 😏</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>45946.27930555555</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>45946</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>06:42:12</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=982b63eb&amp;x-expires=1761573600&amp;x-signature=9eKMwxzzwLDTQr6H1017KZ%2FpqTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>43</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Eso te engorda...</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>45939.24972222222</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>05:59:36</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=005ba84e&amp;x-expires=1761573600&amp;x-signature=fgb2SpLIA3HJwmCJNs3caLGlD1w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>43</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>tremendo waffle jummm</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>45952.22988425926</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>45952</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>05:31:02</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d90fe9a2&amp;x-expires=1761573600&amp;x-signature=abtOtonU56Dk9EeKrcoMaQ5el1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>43</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>mucho waflesote 🤤🤤🤤😛😛</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>45952.14332175926</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>45952</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>03:26:23</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8df82761&amp;x-expires=1761573600&amp;x-signature=ze1NBvYr7d81ZCsDzzUNJqLtzFM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3342,7 +1754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3988,308 +2400,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWrJm4gJFC/</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165375122366/</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq_XXAGFG/</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>11</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>11000212000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89E1JgLYn/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89C8DgF-6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89KRyAGm7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89IjlgAsj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO89ImXgDn3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LOKgPhj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LBggIaM/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DO85LVeAE__/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkkZAgAj4/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWknAQgLLX/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWkjITgFdt/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPWqwZngCtK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1583,18 +1583,18 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mmm</t>
+          <t>Amén gracias gracias gracias 🙏</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45942.92967592592</v>
+        <v>45958.64378472222</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45942</v>
+        <v>45958</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>22:18:44</t>
+          <t>15:27:03</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1611,17 +1611,17 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid036uNWsGKUv3kFshBRyDiUVHadC74D89FCszZBi1eFCHNjx2TMStG5kgrupXRDztnul?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9fzlWvKIOiwQ7kNvwHbVPN5&amp;_nc_oc=AdkkjEQ3bR6cj-tvB36G6kLciVqJR_ONeTrLzbEx94js80Ibl-3z2qJj-wh2K_LycTc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=XqDaewSgdMCwu-upN1UwDg&amp;oh=00_Affs_8x2t17N7xWgSpSMr1l_FvEx592rvWwhiuG4zd6Ldw&amp;oe=69052C5A', 'profileId': 'pfbid02a5iDjo4cSJyuLBH6kw1r7AtvqK1yjRBi2vEggqjkmX5kUwuVp2gE5rCwKeEj3dJMl', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid022q9ygnytt9RDrU75Co3uDc21EYD6aMaknjyrCivUpU3pH8hYR94tFqFM7MksiXBul?comment_id=841334198362686', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzg0MTMzNDE5ODM2MjY4Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M184NDEzMzQxOTgzNjI2ODY=', 'date': '2025-10-28T15:27:03.000Z', 'text': 'Amén gracias gracias gracias 🙏', 'profileUrl': 'https://www.facebook.com/guillermoleon.castroporras', 'profilePicture': 'https://scontent.fsac1-2.fna.fbcdn.net/v/t1.6435-1/85117916_667818727291485_5392093692213329920_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zayPsyG9mn4Q7kNvwEreB-4&amp;_nc_oc=AdneWVafGk8jESjF4ZZFor75SiCTqoh7PHQ_1laYos1zuK9PBsSvZXG8HPP7YzaN5xY&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-2.fna&amp;_nc_gid=LLyvoJroUYF13K0NyNbBnw&amp;oh=00_AfgirTKqhfYp1oIVR8zubmAmgenqIYhNw62wIEx31xoVoQ&amp;oe=6930D2C5', 'profileId': 'pfbid0DknzBtrSiPUMPLMi2xKjWBqDQeaBcxRBzFXrGojPJsADLVQ7776QkL1m8kH75xaJl', 'profileName': 'Guillermo Leon Castro Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1631,16 +1631,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq0BCgKfQ/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237164735122430/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Recibo está Gran bendición pará mí hijo gracias pádre amado tódo poderosó amén amén amén amén 🙏🙏🙏❤️❤️💕</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45958.63444444445</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15:13:36</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1648,24 +1662,20 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid022q9ygnytt9RDrU75Co3uDc21EYD6aMaknjyrCivUpU3pH8hYR94tFqFM7MksiXBul?comment_id=1338133651140129', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzEzMzgxMzM2NTExNDAxMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xMzM4MTMzNjUxMTQwMTI5', 'date': '2025-10-28T15:13:36.000Z', 'text': 'Recibo está Gran bendición pará mí hijo gracias pádre amado tódo poderosó amén amén amén amén 🙏🙏🙏❤️❤️💕', 'profilePicture': 'https://scontent.fsac1-2.fna.fbcdn.net/v/t39.30808-1/474536158_122093688650751252_5519855545053969257_n.jpg?stp=c136.0.816.816a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=R28efw2vzJMQ7kNvwEhGf3r&amp;_nc_oc=AdkbYpjO-zn9xVH6izYIXr75_EJMFMhZAr2p9fciWkYJQV6JAQ8Z45bWlWHydd1poKU&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-2.fna&amp;_nc_gid=LLyvoJroUYF13K0NyNbBnw&amp;oh=00_AfjlJEXpdRPFpH9vvr-ksw2BuQPsfBfvYpRIosUeHB1b7Q&amp;oe=690F1C72', 'profileId': 'pfbid02FMBea8TcgdF3WoJrdNqC1w9ud22g2uvhrPeyjQkmXH249xJP1Hnzn2FrEU3i2iiAl', 'profileName': 'Neyla Pallares', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1675,16 +1685,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPWq0ODAGE7/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1237164735122430/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mmm</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45942.92967592592</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>22:18:44</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1692,24 +1716,20 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPWq0ODAGE7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid022q9ygnytt9RDrU75Co3uDc21EYD6aMaknjyrCivUpU3pH8hYR94tFqFM7MksiXBul?comment_id=1595579854747380', 'id': 'Y29tbWVudDoxMjM3MTY1OTM4NDU1NjQzXzE1OTU1Nzk4NTQ3NDczODA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NTkzODQ1NTY0M18xNTk1NTc5ODU0NzQ3Mzgw', 'date': '2025-10-12T22:18:44.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gerson.perez.180', 'profilePicture': 'https://scontent.fsac1-2.fna.fbcdn.net/v/t39.30808-1/463620923_8683115895087604_8663762736918749973_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AG1Tfsjc8Q8Q7kNvwE1cSy7&amp;_nc_oc=AdkwtCF92AU0oVpNV1l4bptgsgA-mkjWKtCQub6NjoDLt86Pr4dVgUKeeJSgot_II38&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-2.fna&amp;_nc_gid=LLyvoJroUYF13K0NyNbBnw&amp;oh=00_AfjDVM5gy43suiEw0zCNLyFgzgBgxVe6njqeOSpWRaANNQ&amp;oe=690F0F9A', 'profileId': 'pfbid0W1VgZKj2QDZjtXxw5356nXEMdSy79DeQUKyZpt728BPESVfbN9wYU9xQcXfRKiU2l', 'profileName': 'Gerson Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237165938455643', 'postTitle': 'Una excelente fuente de proteína que te acompaña en cada repetición. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164735122430/'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1719,7 +1739,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1237164945122409/</t>
+          <t>https://www.instagram.com/p/DPWq0BCgKfQ/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1736,10 +1756,2066 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq0BCgKfQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq0ODAGE7/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq0ODAGE7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237164945122409/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237164945122409/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWrJm4gJFC/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWrJm4gJFC/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165375122366/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" s="2" t="n">
+        <v>45953.00730324074</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>00:10:31</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02L1b6PwBbKyqPXtYMUjM2YR4kkdpiVFobF7AiRYiFfVqwWzKSV7D5JXDpaZUA9BwEl?comment_id=5109293152628227', 'id': 'Y29tbWVudDoxMjM3MTY3NjkxNzg4ODAxXzUxMDkyOTMxNTI2MjgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NzY5MTc4ODgwMV81MTA5MjkzMTUyNjI4MjI3', 'date': '2025-10-23T00:10:31.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is tilting their head to the side and winking one eye and smiling, and holding up an 'okay' sign with their fingers.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fsan1-1.fna.fbcdn.net/v/t39.1997-6/506595047_1025813215963692_2048925626843765097_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=wOVsRlkqiS4Q7kNvwEJOaVB&amp;_nc_oc=AdltVxSYSN2beX4P8fueLxN_ZiCA67waNfi9o5r3ipx6Dz73IDdfCrVLnDarGRWzwSI&amp;_nc_zt=26&amp;_nc_ht=scontent.fsan1-1.fna&amp;_nc_gid=51shQ_zaYQ4J4p0u2irbjw&amp;oh=00_AfjInuCkGeUn7OLo7DtdlSjaWPRY9XBmPoqfrWWeVSFWcg&amp;oe=690F1970', 'width': 120, 'height': 120}, 'id': '673341905830094'}], 'profileUrl': 'https://www.facebook.com/terapia.holistica.mujer', 'profilePicture': 'https://scontent.fsan1-1.fna.fbcdn.net/v/t39.30808-1/569107353_1434993531964165_1167779583332218425_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=yFLFbmnRPIMQ7kNvwH_V5b4&amp;_nc_oc=AdklxZHfUxOr_g-LUF6HldT5mVFc2Ha0aERNmjstP1RJm1msXv845T9zX_Wbzs3f28s&amp;_nc_zt=24&amp;_nc_ht=scontent.fsan1-1.fna&amp;_nc_gid=51shQ_zaYQ4J4p0u2irbjw&amp;oh=00_AfgAUnt8GxzBY76tG3MpEDkPbSdL42Yl19oBHPr-_M1Rpw&amp;oe=690F16AB', 'profileId': '100063605948985', 'profileName': 'Terapia Holistica', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237167691788801', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165375122366/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq_XXAGFG/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq_XXAGFG/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Me encanta el yogurt Griego</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45955.17246527778</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>04:08:21</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=24838188082496880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzI0ODM4MTg4MDgyNDk2ODgw', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yNDgzODE4ODA4MjQ5Njg4MA==', 'date': '2025-10-25T04:08:21.000Z', 'text': 'Me encanta el yogurt Griego', 'profileUrl': 'https://www.facebook.com/manuel.monagas.2025', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/238794322_109502034773246_3873345908547721675_n.jpg?stp=c276.0.1333.1333a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qYbakoUJDugQ7kNvwH3GklO&amp;_nc_oc=AdnWolqFDomvIEB6z0hBySR9wyu0Ric8iD6f8bmeOGjojZqKJcbMBIS8N2QaR7hLgQer7URGY9raDbQUEGRuWxrs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfgjlefvZ9Zg1YRkSOzxRCLDLDxa2dp7XBb1dvpoNVcLag&amp;oe=690F3430', 'profileId': 'pfbid02c2kMJEU7u26RgbxhZ4fYxFpS9Jv4uT1C5w1K92W9Z5aWrYCQq2wYHD6dqmh9KT2gl', 'profileName': 'Manuel Monagas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Yo</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45954.17839120371</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>04:16:53</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1894882361099769', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4OTQ4ODIzNjEwOTk3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODk0ODgyMzYxMDk5NzY5', 'date': '2025-10-24T04:16:53.000Z', 'text': 'Yo', 'profileUrl': 'https://www.facebook.com/leiber.martinez.544094', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/419381553_2611804115663032_4369972944080474832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tmye-oXq1koQ7kNvwEqfG5c&amp;_nc_oc=AdlGPqcofwTAP5ge0WdcLb2hfxVgltkaXrSc93DQNMoqPootaSupdexZMcNT9GroVI3_OhF1WaGX7sMebZY7-JYY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfiSxu3cM_WamcCSVK_U1hkHlZ5vMGuE9dfZ-XpaMxiFIA&amp;oe=690F12F9', 'profileId': 'pfbid031MeFUt8CY6ZxtP3JUhTSq1PE65Cq2j6f6b3Stm2fqZidZFsnfpVqgFdvEMYN88vsl', 'profileName': 'Leiber Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mejor no me cuido 🤪</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45949.14236111111</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>03:25:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1845091910220964', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE4NDUwOTE5MTAyMjA5NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xODQ1MDkxOTEwMjIwOTY0', 'date': '2025-10-19T03:25:00.000Z', 'text': 'Mejor no me cuido 🤪', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=PFWypIqx4uIQ7kNvwF5rYwi&amp;_nc_oc=Adl9ogxumLVXCFAxvCvMZWFvy4ER2BJg691QowXBCWYhY_b1dbKn9B_Z5PjtJQITOYrAH23eIFFZhvqIRAyg7F3s&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_AfgoEWF5XW4jQhQPfVR3uHiYxGhfJ4iUX33nrNTCOg8LiA&amp;oe=6930DBBA', 'profileId': 'pfbid0Mafs8BXo2Bwp3S1HVHyRf9xpUY8KzcvY3yoJFaCwPU9YSVejfwXaiGxwfvj87d9Xl', 'profileName': 'Debora Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Me gusta pero es costoso</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45960.37395833333</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>08:58:30</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1329194738703462', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzEzMjkxOTQ3Mzg3MDM0NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xMzI5MTk0NzM4NzAzNDYy', 'date': '2025-10-30T08:58:30.000Z', 'text': 'Me gusta pero es costoso', 'profileUrl': 'https://www.facebook.com/leonel.cardenas.33821', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/101539196_2594075970911956_753499330014347264_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=rf8aedp_7p8Q7kNvwF41Dr7&amp;_nc_oc=AdloyD3tzHkeujGiO7B_0IWCl8kvbHl0un1u3EXqMfgldj-6vQDZf0wqyk_8Pe4E53zZrMJQ1golslNYcOr_jkIA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfhxWvLb8mAkvP590PoCcjpf-O6S-IzMoeTjFD4CYH1XGg&amp;oe=6930B7AB', 'profileId': '100009287368736', 'profileName': 'Leonel Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Armadillo pero vi los comentarios 🫢</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45958.50503472222</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>12:07:15</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=679936608135880', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzY3OTkzNjYwODEzNTg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV82Nzk5MzY2MDgxMzU4ODA=', 'date': '2025-10-28T12:07:15.000Z', 'text': 'Armadillo pero vi los comentarios 🫢', 'profileUrl': 'https://www.facebook.com/monica.tapia.58367116', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=PFWypIqx4uIQ7kNvwF5rYwi&amp;_nc_oc=Adl9ogxumLVXCFAxvCvMZWFvy4ER2BJg691QowXBCWYhY_b1dbKn9B_Z5PjtJQITOYrAH23eIFFZhvqIRAyg7F3s&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_AfgoEWF5XW4jQhQPfVR3uHiYxGhfJ4iUX33nrNTCOg8LiA&amp;oe=6930DBBA', 'profileId': 'pfbid08RWa5wShaCED6e5eoP6fyFBkp3wmaymEfkjDWqQ94KcCwMYzwSL8QTa7qAXeFwzSl', 'profileName': 'Monica Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>endonde está ublcado</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45959.176875</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>04:14:42</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1696176247728927', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE2OTYxNzYyNDc3Mjg5Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNjk2MTc2MjQ3NzI4OTI3', 'date': '2025-10-29T04:14:42.000Z', 'text': 'endonde está ublcado', 'profileUrl': 'https://www.facebook.com/fanor.mina.161', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/87575366_132026211680793_3381110852273831936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fFHtSXAzpRoQ7kNvwHNUMRr&amp;_nc_oc=AdkJLMrCceLcCFEanVain49_i-brmVQJdaM_TpaU4NlOAPjIvmQIYnlSBCCkg84VAZ5OP84Rs_KIKQjPI02N-G9J&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfgwEoUFCue8v12IorYGIOCaW_0wZu88hr_U_f8oKOKdrw&amp;oe=6930D5B7', 'profileId': 'pfbid02dadQnGFjnXNvpzxZ7reEJfTtSJEFsJoavQvGEQBgTpCv8qCu8sPnyKSB9MEMTTdMl', 'profileName': 'Fanor Mina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45956.25357638889</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>06:05:09</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=2061400018004298', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzIwNjE0MDAwMTgwMDQyOTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8yMDYxNDAwMDE4MDA0Mjk4', 'date': '2025-10-26T06:05:09.000Z', 'text': 'J', 'profileUrl': 'https://www.facebook.com/gloria.torres.17854', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/437913641_2087568294945321_1303339380599801076_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YnFJDaxomw0Q7kNvwFiu3Wz&amp;_nc_oc=AdlCXCF2II8SsTSavc6GKLaP-YXCxHZPfGk4NAu5NfinCCPaqlsIEqcaoVP4Fx9eJyXN9SPvrZhCOYKkAjGusLJV&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfjUjt-bO8o7-sL0ikmaW0nA2Gi7cgxLTdG8IJACmQcbYA&amp;oe=690F0D3B', 'profileId': '100010765127458', 'profileName': 'Gloria Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ha la endonde está hi bubicado</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45959.176875</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>04:14:42</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1487154205885208', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0ODcxNTQyMDU4ODUyMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDg3MTU0MjA1ODg1MjA4', 'date': '2025-10-29T04:14:42.000Z', 'text': 'Ha la endonde está hi bubicado', 'profileUrl': 'https://www.facebook.com/fanor.mina.161', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/87575366_132026211680793_3381110852273831936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fFHtSXAzpRoQ7kNvwHNUMRr&amp;_nc_oc=AdkJLMrCceLcCFEanVain49_i-brmVQJdaM_TpaU4NlOAPjIvmQIYnlSBCCkg84VAZ5OP84Rs_KIKQjPI02N-G9J&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfgwEoUFCue8v12IorYGIOCaW_0wZu88hr_U_f8oKOKdrw&amp;oe=6930D5B7', 'profileId': 'pfbid02dadQnGFjnXNvpzxZ7reEJfTtSJEFsJoavQvGEQBgTpCv8qCu8sPnyKSB9MEMTTdMl', 'profileName': 'Fanor Mina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" s="2" t="n">
+        <v>45942.01982638889</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>00:28:33</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uu9qamoVZ7CCJq36Q3JT7boD4CfxhZJKZpt1eaKcLayZDfSKByQ5WrtXQnbGzhS3l?comment_id=1491158848887041', 'id': 'Y29tbWVudDoxMjM3MTY2OTExNzg4ODc5XzE0OTExNTg4NDg4ODcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE2NjkxMTc4ODg3OV8xNDkxMTU4ODQ4ODg3MDQx', 'date': '2025-10-12T00:28:33.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Eating, girl with plate of food', 'pack': {'name': 'Hacker Girl', 'id': '114487328748554'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.1997-6/47228646_937338506463428_1086610658415345664_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=JlN4ULxp-QEQ7kNvwEJjc27&amp;_nc_oc=AdkuGHyXt3r5ktp01nErhCB9HqQTgLYwcTAf2X-t3T5GaTk3TifUGLR6zEfRF5udTfMzZhY-Jl0Fo3iQd6ppNIVx&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfhHhvI_McoC7g7j1SwrYCflvjbL4pktbvVXchhcW1-Fsg&amp;oe=690F237A', 'width': 80, 'height': 80}, 'id': '167788183418468'}], 'profileUrl': 'https://www.facebook.com/carl.morales.575097', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/571018777_122144590106816715_8628606568552296184_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G_5I28yJ0bwQ7kNvwG9gY4d&amp;_nc_oc=AdmtacEmpUMActyA7AHfw8qe2cADu2uQGLDBSPJXAjR9i9kMoo61drM8e1b0AHqGkwIVQVoly25BPlVlmyy4kfTZ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=CdxgIHdO6gfstTMHeTWsDA&amp;oh=00_AfjSSLtlO8LZ17zbTfhSTPbRZxGkOBopLth8L3TocMy9jw&amp;oe=690F33D2', 'profileId': 'pfbid036394Zx32JhCLwKqZaQC1EpNqQoTq64pq2PjD3fdjycdCD1JnwzoVfsTFUQ6Aj8khl', 'profileName': 'Carl Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237166911788879', 'postTitle': 'Darle a tu cuerpo los nutrientes que necesita también puede ser un gusto. Griego Alpina, bueno por naturaleza. Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165125122391/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq79FAA9b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165118455725/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq-Y1AJRB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Amén 🙏🙏 Amén</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45942.77177083334</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>18:31:21</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1395370268617041', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzOTUzNzAyNjg2MTcwNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzk1MzcwMjY4NjE3MDQx', 'date': '2025-10-12T18:31:21.000Z', 'text': 'Amén 🙏🙏 Amén', 'profileUrl': 'https://www.facebook.com/josesaul.mezamartinez.52', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t1.6435-1/82099922_224629651869937_8622848549886885888_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3kEkOlVi388Q7kNvwFFEfnP&amp;_nc_oc=AdkIot3nmWeBz6d3dtAF3EWMx27zBiURpwxbISgL0wpK7ViBgo_5qyKzC3bC8fziy-_CCqmBsk1VR6b6Sfg4KEgn&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_Afg6ow3Wu0O-mo8C9CLNO8mg1zWab70sakmL0kPomyh7Pg&amp;oe=6930D490', 'profileId': 'pfbid02MeGqHeYCDr9WDqhRKMdUTMjNch4k7QkRGcdoZjF1nbevnaWxY1kXDmrixDjNE5TYl', 'profileName': 'Jose Saul Meza Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Amén y amén 🙌</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45940.38982638889</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>09:21:21</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1518884169545610', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1MTg4ODQxNjk1NDU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTE4ODg0MTY5NTQ1NjEw', 'date': '2025-10-10T09:21:21.000Z', 'text': 'Amén y amén 🙌', 'profileUrl': 'https://www.facebook.com/juan.salgadoayala', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/545377401_31128299876813765_786586291129358726_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gH5NzKkjNPoQ7kNvwFFjYHp&amp;_nc_oc=AdkKuLqrfFPvzBnO-vVXxg-9CoMyPcapGcNXaCK82a3UJQ5XLz2EBFFWbF4E6ERWKE3PSrPEmUBmqYmuS9zm-s_a&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_Afh5ont4ZU2FSAOf09zXSU9IetNz9uXrR7e9czZBEgKF7A&amp;oe=690F0F27', 'profileId': 'pfbid02UyeVK3ENDvSWJtn519BUMp3N8o5UchZEyLqfgeSz4dpEmwaJ3V1zu7GWXeeQp37Gl', 'profileName': 'Ayala Maria', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A como</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45950.43540509259</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10:26:59</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1149538656625359', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDk1Mzg2NTY2MjUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ5NTM4NjU2NjI1MzU5', 'date': '2025-10-20T10:26:59.000Z', 'text': 'A como', 'profileUrl': 'https://www.facebook.com/alberto.garciaalcala.33', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/457600238_1277484166567741_8983687162695009336_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=V3WLqKFuxHIQ7kNvwE_2FNv&amp;_nc_oc=AdkOQYUUk3fhnjCytJIcbhwmvfdk5Ai5EcjbGZMlmGKSZIf0eF3tro6-zno1vqBkwgtpF0vjXDuILAknXU_4yHGI&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfitO8gU-bFKqeU-7F4zo0uJq8ELARxjwj4Dgtv-5BB3pQ&amp;oe=690F399C', 'profileId': '100029185086914', 'profileName': 'Alberto García Alcalá', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A vaina Kelly jajajajaja</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45955.83497685185</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20:02:22</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=2568260083533663', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzI1NjgyNjAwODM1MzM2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8yNTY4MjYwMDgzNTMzNjYz', 'date': '2025-10-25T20:02:22.000Z', 'text': 'A vaina Kelly jajajajaja', 'profileUrl': 'https://www.facebook.com/vivianamaria.cardonalopez.9', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/430007433_3862963763947982_1508341963538184612_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qvaia_butigQ7kNvwE6snmY&amp;_nc_oc=AdnQu-ZFdKWXVxKIIJNfPTVpH20M3fQ56K664lpYoSmwTWNU_3HHBrME8uDfZ5UkfGz0gi79TiHvNtOB3hQomo1T&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfiSvMPjZ4T2sohtTGZhLGk9V8pykOHrWK1gwzE5hzxbvw&amp;oe=690F2936', 'profileId': 'pfbid02uydUorr6Bp4WM2K24F8m9fBUudCK78YAiGn2xEx5zhHZ2p4roe6H6S46DcKqzGkwl', 'profileName': 'Viviana Maria Cardona Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bajen el precio</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45953.43668981481</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10:28:50</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1165979028811568', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjU5NzkwMjg4MTE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTY1OTc5MDI4ODExNTY4', 'date': '2025-10-23T10:28:50.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0HY5afobZQUQ7kNvwGcoMGj&amp;_nc_oc=AdlR-pfg6t57s3AXhh77whoC1gfmKexdp_ODTJQKVif91Xy4SxtiRaziF3niO6-awkaLpHDd36a0JRqKvHyjzl2k&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfiUbAMbukGGLeJ6vtZzywlijLrcIoevzYrBXrZEm3rwUg&amp;oe=690F3C9E', 'profileId': 'pfbid02r7CkacWLE4zE5Vs6uMk62WXn95zYyiY56pTgSpeQYt2mfd34Lc9CEfzNz8UKdbDKl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12 gramos de proteína, lo mismo que dos huevos medianos.</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45937.99167824074</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>23:48:01</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1270052341543003', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEyNzAwNTIzNDE1NDMwMDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMjcwMDUyMzQxNTQzMDAz', 'date': '2025-10-07T23:48:01.000Z', 'text': '12 gramos de proteína, lo mismo que dos huevos medianos.', 'profileUrl': 'https://www.facebook.com/john.quitian.5', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/545063505_3805001306300675_6962125750994476350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m3nQ0ASTWAEQ7kNvwGbzJW9&amp;_nc_oc=Adl44Hpk2IbRE1foS1SmHFDutIWWnDr-gcClZXffTWk--LkDtxIP6yfXTtaT-WwRkNwHuVOuf1KbiVHcoyxbTb_0&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_Afgz_jk4WTet2GjSjLrHTeBKAXvUPDW1Wvqzh-mtpg0RLA&amp;oe=690F2632', 'profileId': 'pfbid02CbJQ9RXZYs3ZN3Kc52TQwLTpPh9imJx9UNYP2wXA3hyBz1t2U1QLCuZ7whkRChwil', 'profileName': 'John Brito', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45943.06457175926</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>01:32:59</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1540413710637556', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE1NDA0MTM3MTA2Mzc1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xNTQwNDEzNzEwNjM3NTU2', 'date': '2025-10-13T01:32:59.000Z', 'text': 'Precio', 'profileUrl': 'https://www.facebook.com/fernando.martinez.334216', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/571225155_883789914812138_6563785857593807377_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EXHZnF_HiqkQ7kNvwFENpHT&amp;_nc_oc=Adnay4ulzK27SfZK1TQN8wNuUpJHU6SzKlFs8zvRmttQizoRtW_wElwYmr5t5Kdugk1aaZBug98Qblbukg_zMEN7&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfjRVA_QFm0VJyTPBcQMyKwiPbv1eAbmmipKJZe1aCSFVA&amp;oe=690F3793', 'profileId': 'pfbid0RAApTFXavWV6WZPua9WZ4ecEDr5ky5xT59yNdNsjPi12r8vNgZrnprLpNPqCe7HLl', 'profileName': 'Camilo Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Valentina WHAAAT, si es vdd</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45935.20770833334</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>04:59:06</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1162102515840382', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNjIxMDI1MTU4NDAzODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTYyMTAyNTE1ODQwMzgy', 'date': '2025-10-05T04:59:06.000Z', 'text': 'Valentina WHAAAT, si es vdd', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/568156962_3375489279296907_494971603209426016_n.jpg?stp=c0.0.310.310a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UPeTchW4PVAQ7kNvwG4IMab&amp;_nc_oc=AdkonSJW3EIpsVIWoWLpJgBpL1XEn6c3E1T3g8HHTslJPASBX9LNLQ68zI5EaWkgo76p4JLn6xnflL3u2Gm_3Awx&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfjXFEOom41JsyGY8UdBhqTUCGqgNID9afe4lBrSo_UPeg&amp;oe=690F44BC', 'profileId': 'pfbid02NAJjZP6DXZ72kenJf6DYhBbiDUTYjCzVfouupEBCJBBm63bjkGEKgaa5L6XXqvdwl', 'profileName': 'Andrés Caña', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Pero posee aspartame o sacarosa?</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45943.27204861111</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>06:31:45</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1176537577728768', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNzY1Mzc1Nzc3Mjg3Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTc2NTM3NTc3NzI4NzY4', 'date': '2025-10-13T06:31:45.000Z', 'text': 'Pero posee aspartame o sacarosa?', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/571244879_2310977772750767_3743919273635798168_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mLo5tVteXUAQ7kNvwEJKk0U&amp;_nc_oc=AdkIhSYh6yHO1LP9MFzqrwdmOWOoKQC8GM0pWvHa1e0YKLp5rPwAQZwPOa9I6vmDpT66U7Z7CZkK73kpJ5-In14K&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfhJYk_ZhfwbGieuWgqQcKySeoPt93YAWhO9t5Q8D4ouQg&amp;oe=690F23D8', 'profileId': 'pfbid02Z9SQGyrVUSYFekKpXCdYq8WmgUGGbcE2FcWbQtzCCUcoEQJFkAA9Dufu7QjJ7b5nl', 'profileName': 'Andrea Galeano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Astrid Guzman</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45958.97832175926</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>23:28:47</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1144981970599010', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzExNDQ5ODE5NzA1OTkwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMTQ0OTgxOTcwNTk5MDEw', 'date': '2025-10-28T23:28:47.000Z', 'text': 'Astrid Guzman', 'profileUrl': 'https://www.facebook.com/alejandra.torres.230474', 'profilePicture': 'https://scontent.ftpa1-2.fna.fbcdn.net/v/t39.30808-1/540576433_24815098108113853_7919441335396878094_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gmelXV6zLg0Q7kNvwF_Hp_e&amp;_nc_oc=AdlAl-kq1ZGPBfnGcMEbssmdZujB_Z7DXBjOYKWuTFnfXrrM2Vcky5dsbFC_sgrjIWJKipi_aeipAVZlWlzXr3Hl&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-2.fna&amp;_nc_gid=klidPbH0DN_pyceJ2yxRGw&amp;oh=00_AfhIyWwkIapogFJtV7kRCzDSjBw_ZPBhhLn4kBmn889hbA&amp;oe=690F19F3', 'profileId': 'pfbid02n8LFtwMfp8Tay4GPoYx8DFVydunoZ6TFkvpUSiunypozXKwp1yd6uAVk56aiFdbEl', 'profileName': 'Alejandra Torres', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45945.38604166666</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>09:15:54</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1898907661050425', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzE4OTg5MDc2NjEwNTA0MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xODk4OTA3NjYxMDUwNDI1', 'date': '2025-10-15T09:15:54.000Z', 'text': 'W', 'profileUrl': 'https://www.facebook.com/people/Sofia-Tapia/pfbid0v22thYMJ3LEJt66DNMXzmvAw9mX7gC7HHh3eAku7BgKhTggoST8sW1APWBkdBxAKl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/528574252_122162175842577877_1240646051496425102_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ycy3d-RQbUMQ7kNvwEFXhHP&amp;_nc_oc=AdkKeg6JR62jhDhgM_nI7WdlIgU4GgMmbjapAp9MNxJvo-LzGbIXhiqZDsKd43nJdMEF9gNWyH-WhHkVkmhCpXCN&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EgrAAHMtMRHvJm6cD5qX5A&amp;oh=00_AfgYMOkdJeyus9QJ8dB1o-hU4IjLv7rCJWvG3UsDrGuc0A&amp;oe=690F329F', 'profileId': 'pfbid0v22thYMJ3LEJt66DNMXzmvAw9mX7gC7HHh3eAku7BgKhTggoST8sW1APWBkdBxAKl', 'profileName': 'Sofia Tapia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Es q no falta el ignorante</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45947.77100694444</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>18:30:15</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/', 'commentUrl': 'https://www.facebook.com/photo/?fbid=1237187321786838&amp;set=p.1237187321786838&amp;comment_id=1346808237089486', 'id': 'Y29tbWVudDoxMjM3MTg3MzIxNzg2ODM4XzEzNDY4MDgyMzcwODk0ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzMyMTc4NjgzOF8xMzQ2ODA4MjM3MDg5NDg2', 'date': '2025-10-17T18:30:15.000Z', 'text': 'Es q no falta el ignorante', 'profileUrl': 'https://www.facebook.com/sergioandres.yepes.71', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/475947594_2576304862564674_5413743103155424589_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yl2VTNvvFnoQ7kNvwGxRKKO&amp;_nc_oc=Adm-EiyGM0xhIaTDrwXkZ8L8Uigb1CyhBTpZfb0guxJE3uAksLPxYS7vm3yO4zN0kiz_-06SgP1mslDVh0p-bEl9&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EgrAAHMtMRHvJm6cD5qX5A&amp;oh=00_AfgJFgRdhbTiyJXvnwuEobMpRFMG8LXPNGwLBFtuGMqfdA&amp;oe=690F2C2A', 'profileId': 'pfbid0NoSSckErSgfxpgrYf2vPRPsDjcLz6R6PTw3Hd9V5NGEAuvvrkfSPudwehrsFfdNKl', 'profileName': 'Sergio Andres Yepes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187321786838', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165108455726/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Popolopolo</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45953.43538194444</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>10:26:57</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rSeDHTD7dvqU822eKriMJiVuzdcjLcTmvgPnnPFVaU3M8FC5uPxWD9rzM9vnaQLsl?comment_id=24762842283409114', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzI0NzYyODQyMjgzNDA5MTE0', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8yNDc2Mjg0MjI4MzQwOTExNA==', 'date': '2025-10-23T10:26:57.000Z', 'text': 'Popolopolo', 'profileUrl': 'https://www.facebook.com/andresfelipe.carrasquillauribe', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/548338385_10239780134707830_4176900647574765025_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0-RmGX7nCWMQ7kNvwFPrL71&amp;_nc_oc=AdkAOvLivs98h5Kdb6FExhYLbByv6kcuQ5Ih-p4C9hWr6IPMD59x_zqTkvqLoyNaZqw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=0dRuoKCAgTi8TVZC5GDlpQ&amp;oh=00_AfjHSxmr0xj6c6S1kiHXoM2KuiAj-MSL3rR_m9mRLspdiA&amp;oe=690F268C', 'profileId': '1427940316', 'profileName': 'Andres Felipe Carrasquilla Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No sabía que Grecia hiciera yogures</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45958.14216435186</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>03:24:43</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rSeDHTD7dvqU822eKriMJiVuzdcjLcTmvgPnnPFVaU3M8FC5uPxWD9rzM9vnaQLsl?comment_id=1342013247376620', 'id': 'Y29tbWVudDoxMjM3MTg3MTg4NDUzNTE4XzEzNDIwMTMyNDczNzY2MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzNzE4NzE4ODQ1MzUxOF8xMzQyMDEzMjQ3Mzc2NjIw', 'date': '2025-10-28T03:24:43.000Z', 'text': 'No sabía que Grecia hiciera yogures', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558288142_1500389377835883_3000955075336763818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=F34fY5ZLYgIQ7kNvwG3UBYf&amp;_nc_oc=Adk9jxzk1PEGZ6PHP7gR3MB6fgOi86VyyUQw1XTyjR6hVuxlhpvGNQGbMxO8WHlTb8c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=0dRuoKCAgTi8TVZC5GDlpQ&amp;oh=00_AfhE7DfYklhsirQRk3Fu0mtPvmXDvpsiEG37gy8d-Ym89g&amp;oe=690F263F', 'profileId': '100035945041937', 'profileName': 'Jose Madera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1237187188453518', 'postTitle': 'Es rico y además ayuda a cuidarte. Griego Alpina, bueno por naturaleza.  Llévalo ahora.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165381789032/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq24ggGHi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPWq9KSAETh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1237165121789058/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>okis</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45946.71511574074</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>17:09:46</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167323393', 'cid': '7561867232760218389', 'createTime': 1760634586, 'createTimeISO': '2025-10-16T17:09:46.000Z', 'text': 'okis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537017229033735189', 'uniqueId': 'celeste20151216', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/10dbc7a25ff43bed157de068565f960d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ee8bbcc&amp;x-expires=1762304400&amp;x-signature=mFIhEDXkey2uH6iztUlv%2ByxW%2FYI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>43</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Q guaflesote 😏</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45946.27930555555</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>06:42:12</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7561706209356104456', 'createTime': 1760596932, 'createTimeISO': '2025-10-16T06:42:12.000Z', 'text': 'Q guaflesote 😏', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7123587623474660357', 'uniqueId': 'jhoanstebangomezp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d8140b8a21c7f4a778f213ed392370a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9cb7818c&amp;x-expires=1762304400&amp;x-signature=P89AAaI7HH7QgW%2Bavvfv1yQwppM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>43</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Eso te engorda...</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45939.24972222222</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>05:59:36</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7559097637929485064', 'createTime': 1759989576, 'createTimeISO': '2025-10-09T05:59:36.000Z', 'text': 'Eso te engorda...', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489996726113698823', 'uniqueId': 'monica.de.rodrgue1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a4ae90e879ab3e78f069ba9882ecfdd5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7a13415e&amp;x-expires=1762304400&amp;x-signature=raPEO2Q226iyKzvtP99s5KpfSkI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>43</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>tremendo waffle jummm</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45952.22988425926</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>05:31:02</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563913880330945288', 'createTime': 1761111062, 'createTimeISO': '2025-10-22T05:31:02.000Z', 'text': 'tremendo waffle jummm', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068447819170710530', 'uniqueId': 'jpkw1998', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/de126b133d95e31f944b5591caf2ae1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d8a1e05c&amp;x-expires=1762304400&amp;x-signature=n2QwCPMjuF1cJ22N7pW6E%2BSUuS4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>43</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>mucho waflesote 🤤🤤🤤😛😛</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45952.14332175926</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>03:26:23</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7563881436895183623', 'createTime': 1761103583, 'createTimeISO': '2025-10-22T03:26:23.000Z', 'text': 'mucho waflesote 🤤🤤🤤😛😛', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7184214996791510022', 'uniqueId': 'johen_verzul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca40d6f8f7203da6ca06b6c36cd95389~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00f2006c&amp;x-expires=1762304400&amp;x-signature=4pwP%2BHDrP0PCIXNCzJ8k6T4%2FG0I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>43</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>🥰🥰🥰</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45956.94660879629</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>22:43:07</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'input': 'https://www.tiktok.com/@alpinacol/video/7556736663167307009', 'cid': '7565664621622674183', 'createTime': 1761518587, 'createTimeISO': '2025-10-26T22:43:07.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6515772654413157391', 'uniqueId': 'luisgabrieljarami', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=626e096d&amp;x-expires=1762304400&amp;x-signature=kaL2CfCJn8RYS81Wm7Qy0tSvbrg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1754,7 +3830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,11 +4405,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>000</t>
         </is>
       </c>
     </row>
@@ -2398,6 +4474,308 @@
       </c>
       <c r="E30" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWrJm4gJFC/</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165375122366/</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq_XXAGFG/</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165125122391/</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq79FAA9b/</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165118455725/</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq-Y1AJRB/</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165108455726/</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>12</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>110002120000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165381789032/</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq24ggGHi/</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPWq9KSAETh/</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1237165121789058/</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167323393?_r=1&amp;_t=ZS-90lPtFV0mSm</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7556736663167307009?_r=1&amp;_t=ZS-90lPoos65jU</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
